--- a/snow_timeline.xlsx
+++ b/snow_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E554CD99-1562-4EA0-8CC7-A37C6843E884}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EDFA8F1-9AA9-4EC9-8B86-BCB34DBDBD64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2004" windowWidth="17280" windowHeight="10044" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -71,7 +71,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -104,7 +104,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +419,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0BDC52-0678-4879-BFA4-045E88D6C76C}">
-  <dimension ref="A1:D682"/>
+  <dimension ref="A1:D633"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A395" workbookViewId="0">
+      <selection activeCell="F416" sqref="F416"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5736,7 +5736,7 @@
         <v>8</v>
       </c>
       <c r="B375" s="1">
-        <v>43876</v>
+        <v>43907</v>
       </c>
       <c r="C375">
         <v>100</v>
@@ -5750,11 +5750,11 @@
         <v>8</v>
       </c>
       <c r="B376" s="1">
-        <v>43877</v>
+        <v>43908</v>
       </c>
       <c r="C376">
-        <f>C375-1/5</f>
-        <v>99.8</v>
+        <f>C375-1/3</f>
+        <v>99.666666666666671</v>
       </c>
       <c r="D376">
         <v>2020</v>
@@ -5765,11 +5765,11 @@
         <v>8</v>
       </c>
       <c r="B377" s="1">
-        <v>43878</v>
+        <v>43909</v>
       </c>
       <c r="C377">
-        <f t="shared" ref="C377:C379" si="8">C376-1/5</f>
-        <v>99.6</v>
+        <f>C376-1/3</f>
+        <v>99.333333333333343</v>
       </c>
       <c r="D377">
         <v>2020</v>
@@ -5780,11 +5780,10 @@
         <v>8</v>
       </c>
       <c r="B378" s="1">
-        <v>43879</v>
+        <v>43910</v>
       </c>
       <c r="C378">
-        <f t="shared" si="8"/>
-        <v>99.399999999999991</v>
+        <v>99</v>
       </c>
       <c r="D378">
         <v>2020</v>
@@ -5795,11 +5794,11 @@
         <v>8</v>
       </c>
       <c r="B379" s="1">
-        <v>43880</v>
+        <v>43911</v>
       </c>
       <c r="C379">
-        <f t="shared" si="8"/>
-        <v>99.199999999999989</v>
+        <f>C378-1/3</f>
+        <v>98.666666666666671</v>
       </c>
       <c r="D379">
         <v>2020</v>
@@ -5810,10 +5809,11 @@
         <v>8</v>
       </c>
       <c r="B380" s="1">
-        <v>43881</v>
+        <v>43912</v>
       </c>
       <c r="C380">
-        <v>99</v>
+        <f>C379-1/3</f>
+        <v>98.333333333333343</v>
       </c>
       <c r="D380">
         <v>2020</v>
@@ -5824,11 +5824,10 @@
         <v>8</v>
       </c>
       <c r="B381" s="1">
-        <v>43882</v>
+        <v>43913</v>
       </c>
       <c r="C381">
-        <f>C380-2/5</f>
-        <v>98.6</v>
+        <v>98</v>
       </c>
       <c r="D381">
         <v>2020</v>
@@ -5839,11 +5838,10 @@
         <v>8</v>
       </c>
       <c r="B382" s="1">
-        <v>43883</v>
+        <v>43914</v>
       </c>
       <c r="C382">
-        <f t="shared" ref="C382:C384" si="9">C381-2/5</f>
-        <v>98.199999999999989</v>
+        <v>98</v>
       </c>
       <c r="D382">
         <v>2020</v>
@@ -5854,11 +5852,10 @@
         <v>8</v>
       </c>
       <c r="B383" s="1">
-        <v>43884</v>
+        <v>43915</v>
       </c>
       <c r="C383">
-        <f t="shared" si="9"/>
-        <v>97.799999999999983</v>
+        <v>98</v>
       </c>
       <c r="D383">
         <v>2020</v>
@@ -5869,11 +5866,10 @@
         <v>8</v>
       </c>
       <c r="B384" s="1">
-        <v>43885</v>
+        <v>43916</v>
       </c>
       <c r="C384">
-        <f t="shared" si="9"/>
-        <v>97.399999999999977</v>
+        <v>100</v>
       </c>
       <c r="D384">
         <v>2020</v>
@@ -5884,10 +5880,10 @@
         <v>8</v>
       </c>
       <c r="B385" s="1">
-        <v>43886</v>
+        <v>43917</v>
       </c>
       <c r="C385">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D385">
         <v>2020</v>
@@ -5898,11 +5894,10 @@
         <v>8</v>
       </c>
       <c r="B386" s="1">
-        <v>43887</v>
+        <v>43918</v>
       </c>
       <c r="C386">
-        <f>C385-2/3</f>
-        <v>96.333333333333329</v>
+        <v>98</v>
       </c>
       <c r="D386">
         <v>2020</v>
@@ -5913,11 +5908,10 @@
         <v>8</v>
       </c>
       <c r="B387" s="1">
-        <v>43888</v>
+        <v>43919</v>
       </c>
       <c r="C387">
-        <f>C386-2/3</f>
-        <v>95.666666666666657</v>
+        <v>98</v>
       </c>
       <c r="D387">
         <v>2020</v>
@@ -5928,10 +5922,10 @@
         <v>8</v>
       </c>
       <c r="B388" s="1">
-        <v>43889</v>
+        <v>43920</v>
       </c>
       <c r="C388">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D388">
         <v>2020</v>
@@ -5942,10 +5936,10 @@
         <v>8</v>
       </c>
       <c r="B389" s="1">
-        <v>43890</v>
+        <v>43921</v>
       </c>
       <c r="C389">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D389">
         <v>2020</v>
@@ -5956,10 +5950,10 @@
         <v>8</v>
       </c>
       <c r="B390" s="1">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="C390">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D390">
         <v>2020</v>
@@ -5970,10 +5964,10 @@
         <v>8</v>
       </c>
       <c r="B391" s="1">
-        <v>43892</v>
+        <v>43923</v>
       </c>
       <c r="C391">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D391">
         <v>2020</v>
@@ -5984,10 +5978,10 @@
         <v>8</v>
       </c>
       <c r="B392" s="1">
-        <v>43893</v>
+        <v>43924</v>
       </c>
       <c r="C392">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="D392">
         <v>2020</v>
@@ -5998,10 +5992,10 @@
         <v>8</v>
       </c>
       <c r="B393" s="1">
-        <v>43894</v>
+        <v>43925</v>
       </c>
       <c r="C393">
-        <v>94</v>
+        <v>97.5</v>
       </c>
       <c r="D393">
         <v>2020</v>
@@ -6012,10 +6006,10 @@
         <v>8</v>
       </c>
       <c r="B394" s="1">
-        <v>43895</v>
+        <v>43926</v>
       </c>
       <c r="C394">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D394">
         <v>2020</v>
@@ -6026,10 +6020,11 @@
         <v>8</v>
       </c>
       <c r="B395" s="1">
-        <v>43896</v>
+        <v>43927</v>
       </c>
       <c r="C395">
-        <v>98</v>
+        <f>C394-2/3</f>
+        <v>96.333333333333329</v>
       </c>
       <c r="D395">
         <v>2020</v>
@@ -6040,10 +6035,11 @@
         <v>8</v>
       </c>
       <c r="B396" s="1">
-        <v>43897</v>
+        <v>43928</v>
       </c>
       <c r="C396">
-        <v>100</v>
+        <f>C395-2/3</f>
+        <v>95.666666666666657</v>
       </c>
       <c r="D396">
         <v>2020</v>
@@ -6054,10 +6050,10 @@
         <v>8</v>
       </c>
       <c r="B397" s="1">
-        <v>43898</v>
+        <v>43929</v>
       </c>
       <c r="C397">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D397">
         <v>2020</v>
@@ -6068,10 +6064,10 @@
         <v>8</v>
       </c>
       <c r="B398" s="1">
-        <v>43899</v>
+        <v>43930</v>
       </c>
       <c r="C398">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D398">
         <v>2020</v>
@@ -6082,10 +6078,10 @@
         <v>8</v>
       </c>
       <c r="B399" s="1">
-        <v>43900</v>
+        <v>43931</v>
       </c>
       <c r="C399">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D399">
         <v>2020</v>
@@ -6096,10 +6092,10 @@
         <v>8</v>
       </c>
       <c r="B400" s="1">
-        <v>43901</v>
+        <v>43932</v>
       </c>
       <c r="C400">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D400">
         <v>2020</v>
@@ -6110,10 +6106,10 @@
         <v>8</v>
       </c>
       <c r="B401" s="1">
-        <v>43902</v>
+        <v>43933</v>
       </c>
       <c r="C401">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D401">
         <v>2020</v>
@@ -6124,10 +6120,10 @@
         <v>8</v>
       </c>
       <c r="B402" s="1">
-        <v>43903</v>
+        <v>43934</v>
       </c>
       <c r="C402">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="D402">
         <v>2020</v>
@@ -6138,10 +6134,10 @@
         <v>8</v>
       </c>
       <c r="B403" s="1">
-        <v>43904</v>
+        <v>43935</v>
       </c>
       <c r="C403">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="D403">
         <v>2020</v>
@@ -6152,10 +6148,10 @@
         <v>8</v>
       </c>
       <c r="B404" s="1">
-        <v>43905</v>
+        <v>43936</v>
       </c>
       <c r="C404">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D404">
         <v>2020</v>
@@ -6166,10 +6162,10 @@
         <v>8</v>
       </c>
       <c r="B405" s="1">
-        <v>43906</v>
+        <v>43937</v>
       </c>
       <c r="C405">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="D405">
         <v>2020</v>
@@ -6180,11 +6176,10 @@
         <v>8</v>
       </c>
       <c r="B406" s="1">
-        <v>43907</v>
+        <v>43938</v>
       </c>
       <c r="C406">
-        <f>C405-2/5</f>
-        <v>99.6</v>
+        <v>69</v>
       </c>
       <c r="D406">
         <v>2020</v>
@@ -6195,11 +6190,10 @@
         <v>8</v>
       </c>
       <c r="B407" s="1">
-        <v>43908</v>
+        <v>43939</v>
       </c>
       <c r="C407">
-        <f t="shared" ref="C407:C409" si="10">C406-2/5</f>
-        <v>99.199999999999989</v>
+        <v>62</v>
       </c>
       <c r="D407">
         <v>2020</v>
@@ -6210,11 +6204,10 @@
         <v>8</v>
       </c>
       <c r="B408" s="1">
-        <v>43909</v>
+        <v>43940</v>
       </c>
       <c r="C408">
-        <f t="shared" si="10"/>
-        <v>98.799999999999983</v>
+        <v>53</v>
       </c>
       <c r="D408">
         <v>2020</v>
@@ -6225,11 +6218,10 @@
         <v>8</v>
       </c>
       <c r="B409" s="1">
-        <v>43910</v>
+        <v>43941</v>
       </c>
       <c r="C409">
-        <f t="shared" si="10"/>
-        <v>98.399999999999977</v>
+        <v>48</v>
       </c>
       <c r="D409">
         <v>2020</v>
@@ -6240,10 +6232,10 @@
         <v>8</v>
       </c>
       <c r="B410" s="1">
-        <v>43911</v>
+        <v>43942</v>
       </c>
       <c r="C410">
-        <v>98</v>
+        <v>43</v>
       </c>
       <c r="D410">
         <v>2020</v>
@@ -6254,10 +6246,10 @@
         <v>8</v>
       </c>
       <c r="B411" s="1">
-        <v>43912</v>
+        <v>43943</v>
       </c>
       <c r="C411">
-        <v>97</v>
+        <v>41</v>
       </c>
       <c r="D411">
         <v>2020</v>
@@ -6268,10 +6260,10 @@
         <v>8</v>
       </c>
       <c r="B412" s="1">
-        <v>43913</v>
+        <v>43944</v>
       </c>
       <c r="C412">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="D412">
         <v>2020</v>
@@ -6282,10 +6274,10 @@
         <v>8</v>
       </c>
       <c r="B413" s="1">
-        <v>43914</v>
+        <v>43945</v>
       </c>
       <c r="C413">
-        <v>93</v>
+        <v>23</v>
       </c>
       <c r="D413">
         <v>2020</v>
@@ -6296,10 +6288,10 @@
         <v>8</v>
       </c>
       <c r="B414" s="1">
-        <v>43915</v>
+        <v>43946</v>
       </c>
       <c r="C414">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="D414">
         <v>2020</v>
@@ -6310,10 +6302,10 @@
         <v>8</v>
       </c>
       <c r="B415" s="1">
-        <v>43916</v>
+        <v>43947</v>
       </c>
       <c r="C415">
-        <v>88</v>
+        <v>7</v>
       </c>
       <c r="D415">
         <v>2020</v>
@@ -6324,10 +6316,10 @@
         <v>8</v>
       </c>
       <c r="B416" s="1">
-        <v>43917</v>
+        <v>43948</v>
       </c>
       <c r="C416">
-        <v>86</v>
+        <v>6</v>
       </c>
       <c r="D416">
         <v>2020</v>
@@ -6338,10 +6330,10 @@
         <v>8</v>
       </c>
       <c r="B417" s="1">
-        <v>43918</v>
+        <v>43949</v>
       </c>
       <c r="C417">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D417">
         <v>2020</v>
@@ -6352,11 +6344,10 @@
         <v>8</v>
       </c>
       <c r="B418" s="1">
-        <v>43919</v>
+        <v>43950</v>
       </c>
       <c r="C418">
-        <f>C417-8/3</f>
-        <v>81.333333333333329</v>
+        <v>6</v>
       </c>
       <c r="D418">
         <v>2020</v>
@@ -6367,11 +6358,10 @@
         <v>8</v>
       </c>
       <c r="B419" s="1">
-        <v>43920</v>
+        <v>43951</v>
       </c>
       <c r="C419">
-        <f>C418-8/3</f>
-        <v>78.666666666666657</v>
+        <v>3</v>
       </c>
       <c r="D419">
         <v>2020</v>
@@ -6382,10 +6372,10 @@
         <v>8</v>
       </c>
       <c r="B420" s="1">
-        <v>43921</v>
+        <v>43952</v>
       </c>
       <c r="C420">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="D420">
         <v>2020</v>
@@ -6396,10 +6386,10 @@
         <v>8</v>
       </c>
       <c r="B421" s="1">
-        <v>43922</v>
+        <v>43953</v>
       </c>
       <c r="C421">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="D421">
         <v>2020</v>
@@ -6410,10 +6400,10 @@
         <v>8</v>
       </c>
       <c r="B422" s="1">
-        <v>43923</v>
+        <v>43954</v>
       </c>
       <c r="C422">
-        <v>71</v>
+        <v>80</v>
       </c>
       <c r="D422">
         <v>2020</v>
@@ -6424,10 +6414,10 @@
         <v>8</v>
       </c>
       <c r="B423" s="1">
-        <v>43924</v>
+        <v>43955</v>
       </c>
       <c r="C423">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D423">
         <v>2020</v>
@@ -6438,10 +6428,10 @@
         <v>8</v>
       </c>
       <c r="B424" s="1">
-        <v>43925</v>
+        <v>43956</v>
       </c>
       <c r="C424">
-        <v>100</v>
+        <v>2</v>
       </c>
       <c r="D424">
         <v>2020</v>
@@ -6452,10 +6442,11 @@
         <v>8</v>
       </c>
       <c r="B425" s="1">
-        <v>43926</v>
+        <v>43957</v>
       </c>
       <c r="C425">
-        <v>100</v>
+        <f>C424-2/4</f>
+        <v>1.5</v>
       </c>
       <c r="D425">
         <v>2020</v>
@@ -6466,10 +6457,11 @@
         <v>8</v>
       </c>
       <c r="B426" s="1">
-        <v>43927</v>
+        <v>43958</v>
       </c>
       <c r="C426">
-        <v>100</v>
+        <f t="shared" ref="C426:C427" si="8">C425-2/4</f>
+        <v>1</v>
       </c>
       <c r="D426">
         <v>2020</v>
@@ -6480,10 +6472,11 @@
         <v>8</v>
       </c>
       <c r="B427" s="1">
-        <v>43928</v>
+        <v>43959</v>
       </c>
       <c r="C427">
-        <v>100</v>
+        <f t="shared" si="8"/>
+        <v>0.5</v>
       </c>
       <c r="D427">
         <v>2020</v>
@@ -6494,10 +6487,10 @@
         <v>8</v>
       </c>
       <c r="B428" s="1">
-        <v>43929</v>
+        <v>43960</v>
       </c>
       <c r="C428">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D428">
         <v>2020</v>
@@ -6505,691 +6498,691 @@
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B429" s="1">
-        <v>43930</v>
+        <v>43474</v>
       </c>
       <c r="C429">
         <v>100</v>
       </c>
       <c r="D429">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B430" s="1">
-        <v>43931</v>
+        <v>43475</v>
       </c>
       <c r="C430">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D430">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B431" s="1">
-        <v>43932</v>
+        <v>43476</v>
       </c>
       <c r="C431">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="D431">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="432" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B432" s="1">
-        <v>43933</v>
+        <v>43477</v>
       </c>
       <c r="C432">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="D432">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="433" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B433" s="1">
-        <v>43934</v>
+        <v>43478</v>
       </c>
       <c r="C433">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D433">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="434" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B434" s="1">
-        <v>43935</v>
+        <v>43479</v>
       </c>
       <c r="C434">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D434">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="435" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B435" s="1">
-        <v>43936</v>
+        <v>43480</v>
       </c>
       <c r="C435">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D435">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="436" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B436" s="1">
-        <v>43937</v>
+        <v>43481</v>
       </c>
       <c r="C436">
-        <v>100</v>
+        <v>86</v>
       </c>
       <c r="D436">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="437" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B437" s="1">
-        <v>43938</v>
+        <v>43482</v>
       </c>
       <c r="C437">
         <v>100</v>
       </c>
       <c r="D437">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="438" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B438" s="1">
-        <v>43939</v>
+        <v>43483</v>
       </c>
       <c r="C438">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D438">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="439" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B439" s="1">
-        <v>43940</v>
+        <v>43484</v>
       </c>
       <c r="C439">
-        <v>99.5</v>
+        <v>83</v>
       </c>
       <c r="D439">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="440" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B440" s="1">
-        <v>43941</v>
+        <v>43485</v>
       </c>
       <c r="C440">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="D440">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="441" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B441" s="1">
-        <v>43942</v>
+        <v>43486</v>
       </c>
       <c r="C441">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D441">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="442" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B442" s="1">
-        <v>43943</v>
+        <v>43487</v>
       </c>
       <c r="C442">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D442">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="443" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B443" s="1">
-        <v>43944</v>
+        <v>43488</v>
       </c>
       <c r="C443">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="D443">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="444" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B444" s="1">
-        <v>43945</v>
+        <v>43489</v>
       </c>
       <c r="C444">
-        <v>92</v>
+        <v>46</v>
       </c>
       <c r="D444">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="445" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A445" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B445" s="1">
-        <v>43946</v>
+        <v>43490</v>
       </c>
       <c r="C445">
-        <v>92</v>
+        <v>32</v>
       </c>
       <c r="D445">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="446" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A446" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B446" s="1">
-        <v>43947</v>
+        <v>43491</v>
       </c>
       <c r="C446">
-        <v>100</v>
+        <v>18</v>
       </c>
       <c r="D446">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="447" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A447" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B447" s="1">
-        <v>43948</v>
+        <v>43492</v>
       </c>
       <c r="C447">
-        <v>99</v>
+        <v>7</v>
       </c>
       <c r="D447">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="448" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A448" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B448" s="1">
-        <v>43949</v>
+        <v>43493</v>
       </c>
       <c r="C448">
-        <v>97</v>
+        <v>3</v>
       </c>
       <c r="D448">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="449" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A449" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B449" s="1">
-        <v>43950</v>
+        <v>43494</v>
       </c>
       <c r="C449">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="D449">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="450" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A450" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B450" s="1">
-        <v>43951</v>
+        <v>43495</v>
       </c>
       <c r="C450">
-        <v>93</v>
+        <v>2</v>
       </c>
       <c r="D450">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="451" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A451" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B451" s="1">
-        <v>43952</v>
+        <v>43496</v>
       </c>
       <c r="C451">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D451">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="452" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A452" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B452" s="1">
-        <v>43953</v>
+        <v>43497</v>
       </c>
       <c r="C452">
-        <v>86</v>
+        <f>C451-1/3</f>
+        <v>0.66666666666666674</v>
       </c>
       <c r="D452">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="453" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A453" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B453" s="1">
-        <v>43954</v>
+        <v>43498</v>
       </c>
       <c r="C453">
-        <v>82</v>
+        <f>C452-1/3</f>
+        <v>0.33333333333333343</v>
       </c>
       <c r="D453">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="454" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A454" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B454" s="1">
-        <v>43955</v>
+        <v>43499</v>
       </c>
       <c r="C454">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="D454">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="455" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A455" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B455" s="1">
-        <v>43956</v>
+        <v>43500</v>
       </c>
       <c r="C455">
-        <v>73</v>
+        <v>100</v>
       </c>
       <c r="D455">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="456" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A456" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B456" s="1">
-        <v>43957</v>
+        <v>43501</v>
       </c>
       <c r="C456">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="D456">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="457" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A457" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B457" s="1">
-        <v>43958</v>
+        <v>43502</v>
       </c>
       <c r="C457">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="D457">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="458" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A458" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B458" s="1">
-        <v>43959</v>
+        <v>43503</v>
       </c>
       <c r="C458">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D458">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="459" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A459" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B459" s="1">
-        <v>43960</v>
+        <v>43504</v>
       </c>
       <c r="C459">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="D459">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="460" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A460" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B460" s="1">
-        <v>43961</v>
+        <v>43505</v>
       </c>
       <c r="C460">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D460">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="461" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A461" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B461" s="1">
-        <v>43962</v>
+        <v>43506</v>
       </c>
       <c r="C461">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D461">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="462" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A462" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B462" s="1">
-        <v>43963</v>
+        <v>43507</v>
       </c>
       <c r="C462">
-        <v>36</v>
+        <v>100</v>
       </c>
       <c r="D462">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="463" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A463" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B463" s="1">
-        <v>43964</v>
+        <v>43508</v>
       </c>
       <c r="C463">
-        <v>23</v>
+        <v>94</v>
       </c>
       <c r="D463">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="464" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A464" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B464" s="1">
-        <v>43965</v>
+        <v>43509</v>
       </c>
       <c r="C464">
-        <v>15</v>
+        <v>82</v>
       </c>
       <c r="D464">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="465" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A465" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B465" s="1">
-        <v>43966</v>
+        <v>43510</v>
       </c>
       <c r="C465">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="D465">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="466" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A466" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B466" s="1">
-        <v>43967</v>
+        <v>43511</v>
       </c>
       <c r="C466">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D466">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="467" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A467" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B467" s="1">
-        <v>43968</v>
+        <v>43512</v>
       </c>
       <c r="C467">
-        <v>8</v>
+        <f>C466-3/2</f>
+        <v>98.5</v>
       </c>
       <c r="D467">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="468" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A468" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B468" s="1">
-        <v>43969</v>
+        <v>43513</v>
       </c>
       <c r="C468">
-        <v>8</v>
+        <v>97</v>
       </c>
       <c r="D468">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="469" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A469" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B469" s="1">
-        <v>43970</v>
+        <v>43514</v>
       </c>
       <c r="C469">
-        <v>8</v>
+        <v>95</v>
       </c>
       <c r="D469">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="470" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A470" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B470" s="1">
-        <v>43971</v>
+        <v>43515</v>
       </c>
       <c r="C470">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D470">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="471" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A471" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B471" s="1">
-        <v>43972</v>
+        <v>43516</v>
       </c>
       <c r="C471">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="D471">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="472" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A472" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B472" s="1">
-        <v>43973</v>
+        <v>43517</v>
       </c>
       <c r="C472">
-        <v>3</v>
+        <v>100</v>
       </c>
       <c r="D472">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="473" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A473" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B473" s="1">
-        <v>43974</v>
+        <v>43518</v>
       </c>
       <c r="C473">
-        <v>1</v>
+        <v>98</v>
       </c>
       <c r="D473">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="474" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A474" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B474" s="1">
-        <v>43975</v>
+        <v>43519</v>
       </c>
       <c r="C474">
-        <f>C473-1/4</f>
-        <v>0.75</v>
+        <v>87</v>
       </c>
       <c r="D474">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="475" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A475" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B475" s="1">
-        <v>43976</v>
+        <v>43520</v>
       </c>
       <c r="C475">
-        <f t="shared" ref="C475:C476" si="11">C474-1/4</f>
-        <v>0.5</v>
+        <v>100</v>
       </c>
       <c r="D475">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="476" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A476" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B476" s="1">
-        <v>43977</v>
+        <v>43521</v>
       </c>
       <c r="C476">
-        <f t="shared" si="11"/>
-        <v>0.25</v>
+        <v>100</v>
       </c>
       <c r="D476">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="477" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A477" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B477" s="1">
-        <v>43978</v>
+        <v>43522</v>
       </c>
       <c r="C477">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D477">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="478" spans="1:4" x14ac:dyDescent="0.3">
@@ -7197,7 +7190,7 @@
         <v>9</v>
       </c>
       <c r="B478" s="1">
-        <v>43474</v>
+        <v>43523</v>
       </c>
       <c r="C478">
         <v>100</v>
@@ -7211,10 +7204,10 @@
         <v>9</v>
       </c>
       <c r="B479" s="1">
-        <v>43475</v>
+        <v>43524</v>
       </c>
       <c r="C479">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D479">
         <v>2019</v>
@@ -7225,10 +7218,10 @@
         <v>9</v>
       </c>
       <c r="B480" s="1">
-        <v>43476</v>
+        <v>43525</v>
       </c>
       <c r="C480">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="D480">
         <v>2019</v>
@@ -7239,10 +7232,10 @@
         <v>9</v>
       </c>
       <c r="B481" s="1">
-        <v>43477</v>
+        <v>43526</v>
       </c>
       <c r="C481">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D481">
         <v>2019</v>
@@ -7253,10 +7246,10 @@
         <v>9</v>
       </c>
       <c r="B482" s="1">
-        <v>43478</v>
+        <v>43527</v>
       </c>
       <c r="C482">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D482">
         <v>2019</v>
@@ -7267,10 +7260,10 @@
         <v>9</v>
       </c>
       <c r="B483" s="1">
-        <v>43479</v>
+        <v>43528</v>
       </c>
       <c r="C483">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D483">
         <v>2019</v>
@@ -7281,10 +7274,10 @@
         <v>9</v>
       </c>
       <c r="B484" s="1">
-        <v>43480</v>
+        <v>43529</v>
       </c>
       <c r="C484">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D484">
         <v>2019</v>
@@ -7295,10 +7288,10 @@
         <v>9</v>
       </c>
       <c r="B485" s="1">
-        <v>43481</v>
+        <v>43530</v>
       </c>
       <c r="C485">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="D485">
         <v>2019</v>
@@ -7309,7 +7302,7 @@
         <v>9</v>
       </c>
       <c r="B486" s="1">
-        <v>43482</v>
+        <v>43531</v>
       </c>
       <c r="C486">
         <v>100</v>
@@ -7323,10 +7316,10 @@
         <v>9</v>
       </c>
       <c r="B487" s="1">
-        <v>43483</v>
+        <v>43532</v>
       </c>
       <c r="C487">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D487">
         <v>2019</v>
@@ -7337,10 +7330,10 @@
         <v>9</v>
       </c>
       <c r="B488" s="1">
-        <v>43484</v>
+        <v>43533</v>
       </c>
       <c r="C488">
-        <v>83</v>
+        <v>100</v>
       </c>
       <c r="D488">
         <v>2019</v>
@@ -7351,10 +7344,10 @@
         <v>9</v>
       </c>
       <c r="B489" s="1">
-        <v>43485</v>
+        <v>43534</v>
       </c>
       <c r="C489">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D489">
         <v>2019</v>
@@ -7365,10 +7358,10 @@
         <v>9</v>
       </c>
       <c r="B490" s="1">
-        <v>43486</v>
+        <v>43535</v>
       </c>
       <c r="C490">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D490">
         <v>2019</v>
@@ -7379,10 +7372,10 @@
         <v>9</v>
       </c>
       <c r="B491" s="1">
-        <v>43487</v>
+        <v>43536</v>
       </c>
       <c r="C491">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D491">
         <v>2019</v>
@@ -7393,10 +7386,10 @@
         <v>9</v>
       </c>
       <c r="B492" s="1">
-        <v>43488</v>
+        <v>43537</v>
       </c>
       <c r="C492">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="D492">
         <v>2019</v>
@@ -7407,10 +7400,10 @@
         <v>9</v>
       </c>
       <c r="B493" s="1">
-        <v>43489</v>
+        <v>43538</v>
       </c>
       <c r="C493">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="D493">
         <v>2019</v>
@@ -7421,10 +7414,10 @@
         <v>9</v>
       </c>
       <c r="B494" s="1">
-        <v>43490</v>
+        <v>43539</v>
       </c>
       <c r="C494">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="D494">
         <v>2019</v>
@@ -7435,10 +7428,10 @@
         <v>9</v>
       </c>
       <c r="B495" s="1">
-        <v>43491</v>
+        <v>43540</v>
       </c>
       <c r="C495">
-        <v>18</v>
+        <v>100</v>
       </c>
       <c r="D495">
         <v>2019</v>
@@ -7449,10 +7442,11 @@
         <v>9</v>
       </c>
       <c r="B496" s="1">
-        <v>43492</v>
+        <v>43541</v>
       </c>
       <c r="C496">
-        <v>7</v>
+        <f>C495-2/3</f>
+        <v>99.333333333333329</v>
       </c>
       <c r="D496">
         <v>2019</v>
@@ -7463,10 +7457,11 @@
         <v>9</v>
       </c>
       <c r="B497" s="1">
-        <v>43493</v>
+        <v>43542</v>
       </c>
       <c r="C497">
-        <v>3</v>
+        <f>C496-2/3</f>
+        <v>98.666666666666657</v>
       </c>
       <c r="D497">
         <v>2019</v>
@@ -7477,10 +7472,10 @@
         <v>9</v>
       </c>
       <c r="B498" s="1">
-        <v>43494</v>
+        <v>43543</v>
       </c>
       <c r="C498">
-        <v>3</v>
+        <v>98</v>
       </c>
       <c r="D498">
         <v>2019</v>
@@ -7491,10 +7486,10 @@
         <v>9</v>
       </c>
       <c r="B499" s="1">
-        <v>43495</v>
+        <v>43544</v>
       </c>
       <c r="C499">
-        <v>2</v>
+        <v>95</v>
       </c>
       <c r="D499">
         <v>2019</v>
@@ -7505,10 +7500,10 @@
         <v>9</v>
       </c>
       <c r="B500" s="1">
-        <v>43496</v>
+        <v>43545</v>
       </c>
       <c r="C500">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D500">
         <v>2019</v>
@@ -7519,11 +7514,10 @@
         <v>9</v>
       </c>
       <c r="B501" s="1">
-        <v>43497</v>
+        <v>43546</v>
       </c>
       <c r="C501">
-        <f>C500-1/3</f>
-        <v>0.66666666666666674</v>
+        <v>90</v>
       </c>
       <c r="D501">
         <v>2019</v>
@@ -7534,11 +7528,10 @@
         <v>9</v>
       </c>
       <c r="B502" s="1">
-        <v>43498</v>
+        <v>43547</v>
       </c>
       <c r="C502">
-        <f>C501-1/3</f>
-        <v>0.33333333333333343</v>
+        <v>87</v>
       </c>
       <c r="D502">
         <v>2019</v>
@@ -7549,10 +7542,10 @@
         <v>9</v>
       </c>
       <c r="B503" s="1">
-        <v>43499</v>
+        <v>43548</v>
       </c>
       <c r="C503">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D503">
         <v>2019</v>
@@ -7563,10 +7556,10 @@
         <v>9</v>
       </c>
       <c r="B504" s="1">
-        <v>43500</v>
+        <v>43549</v>
       </c>
       <c r="C504">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D504">
         <v>2019</v>
@@ -7577,10 +7570,10 @@
         <v>9</v>
       </c>
       <c r="B505" s="1">
-        <v>43501</v>
+        <v>43550</v>
       </c>
       <c r="C505">
-        <v>100</v>
+        <v>77</v>
       </c>
       <c r="D505">
         <v>2019</v>
@@ -7591,10 +7584,10 @@
         <v>9</v>
       </c>
       <c r="B506" s="1">
-        <v>43502</v>
+        <v>43551</v>
       </c>
       <c r="C506">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D506">
         <v>2019</v>
@@ -7605,10 +7598,10 @@
         <v>9</v>
       </c>
       <c r="B507" s="1">
-        <v>43503</v>
+        <v>43552</v>
       </c>
       <c r="C507">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="D507">
         <v>2019</v>
@@ -7619,10 +7612,10 @@
         <v>9</v>
       </c>
       <c r="B508" s="1">
-        <v>43504</v>
+        <v>43553</v>
       </c>
       <c r="C508">
-        <v>90</v>
+        <v>71</v>
       </c>
       <c r="D508">
         <v>2019</v>
@@ -7633,10 +7626,10 @@
         <v>9</v>
       </c>
       <c r="B509" s="1">
-        <v>43505</v>
+        <v>43554</v>
       </c>
       <c r="C509">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="D509">
         <v>2019</v>
@@ -7647,10 +7640,10 @@
         <v>9</v>
       </c>
       <c r="B510" s="1">
-        <v>43506</v>
+        <v>43555</v>
       </c>
       <c r="C510">
-        <v>100</v>
+        <v>42</v>
       </c>
       <c r="D510">
         <v>2019</v>
@@ -7661,10 +7654,10 @@
         <v>9</v>
       </c>
       <c r="B511" s="1">
-        <v>43507</v>
+        <v>43556</v>
       </c>
       <c r="C511">
-        <v>100</v>
+        <v>28</v>
       </c>
       <c r="D511">
         <v>2019</v>
@@ -7675,10 +7668,10 @@
         <v>9</v>
       </c>
       <c r="B512" s="1">
-        <v>43508</v>
+        <v>43557</v>
       </c>
       <c r="C512">
-        <v>94</v>
+        <v>17</v>
       </c>
       <c r="D512">
         <v>2019</v>
@@ -7689,10 +7682,10 @@
         <v>9</v>
       </c>
       <c r="B513" s="1">
-        <v>43509</v>
+        <v>43558</v>
       </c>
       <c r="C513">
-        <v>82</v>
+        <v>6</v>
       </c>
       <c r="D513">
         <v>2019</v>
@@ -7703,10 +7696,10 @@
         <v>9</v>
       </c>
       <c r="B514" s="1">
-        <v>43510</v>
+        <v>43559</v>
       </c>
       <c r="C514">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D514">
         <v>2019</v>
@@ -7717,10 +7710,10 @@
         <v>9</v>
       </c>
       <c r="B515" s="1">
-        <v>43511</v>
+        <v>43560</v>
       </c>
       <c r="C515">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D515">
         <v>2019</v>
@@ -7731,14 +7724,13 @@
         <v>9</v>
       </c>
       <c r="B516" s="1">
-        <v>43512</v>
+        <v>43807</v>
       </c>
       <c r="C516">
-        <f>C515-3/2</f>
-        <v>98.5</v>
+        <v>100</v>
       </c>
       <c r="D516">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="517" spans="1:4" x14ac:dyDescent="0.3">
@@ -7746,13 +7738,10 @@
         <v>9</v>
       </c>
       <c r="B517" s="1">
-        <v>43513</v>
-      </c>
-      <c r="C517">
-        <v>97</v>
+        <v>43808</v>
       </c>
       <c r="D517">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="518" spans="1:4" x14ac:dyDescent="0.3">
@@ -7760,13 +7749,10 @@
         <v>9</v>
       </c>
       <c r="B518" s="1">
-        <v>43514</v>
-      </c>
-      <c r="C518">
-        <v>95</v>
+        <v>43809</v>
       </c>
       <c r="D518">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="519" spans="1:4" x14ac:dyDescent="0.3">
@@ -7774,13 +7760,10 @@
         <v>9</v>
       </c>
       <c r="B519" s="1">
-        <v>43515</v>
-      </c>
-      <c r="C519">
-        <v>89</v>
+        <v>43810</v>
       </c>
       <c r="D519">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="520" spans="1:4" x14ac:dyDescent="0.3">
@@ -7788,13 +7771,10 @@
         <v>9</v>
       </c>
       <c r="B520" s="1">
-        <v>43516</v>
-      </c>
-      <c r="C520">
-        <v>100</v>
+        <v>43811</v>
       </c>
       <c r="D520">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="521" spans="1:4" x14ac:dyDescent="0.3">
@@ -7802,13 +7782,13 @@
         <v>9</v>
       </c>
       <c r="B521" s="1">
-        <v>43517</v>
+        <v>43812</v>
       </c>
       <c r="C521">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D521">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="522" spans="1:4" x14ac:dyDescent="0.3">
@@ -7816,13 +7796,10 @@
         <v>9</v>
       </c>
       <c r="B522" s="1">
-        <v>43518</v>
-      </c>
-      <c r="C522">
-        <v>98</v>
+        <v>43813</v>
       </c>
       <c r="D522">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="523" spans="1:4" x14ac:dyDescent="0.3">
@@ -7830,13 +7807,13 @@
         <v>9</v>
       </c>
       <c r="B523" s="1">
-        <v>43519</v>
+        <v>43814</v>
       </c>
       <c r="C523">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D523">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="524" spans="1:4" x14ac:dyDescent="0.3">
@@ -7844,13 +7821,10 @@
         <v>9</v>
       </c>
       <c r="B524" s="1">
-        <v>43520</v>
-      </c>
-      <c r="C524">
-        <v>100</v>
+        <v>43815</v>
       </c>
       <c r="D524">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="525" spans="1:4" x14ac:dyDescent="0.3">
@@ -7858,13 +7832,10 @@
         <v>9</v>
       </c>
       <c r="B525" s="1">
-        <v>43521</v>
-      </c>
-      <c r="C525">
-        <v>100</v>
+        <v>43816</v>
       </c>
       <c r="D525">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="526" spans="1:4" x14ac:dyDescent="0.3">
@@ -7872,13 +7843,13 @@
         <v>9</v>
       </c>
       <c r="B526" s="1">
-        <v>43522</v>
+        <v>43817</v>
       </c>
       <c r="C526">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D526">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="527" spans="1:4" x14ac:dyDescent="0.3">
@@ -7886,13 +7857,13 @@
         <v>9</v>
       </c>
       <c r="B527" s="1">
-        <v>43523</v>
+        <v>43818</v>
       </c>
       <c r="C527">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D527">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="528" spans="1:4" x14ac:dyDescent="0.3">
@@ -7900,13 +7871,10 @@
         <v>9</v>
       </c>
       <c r="B528" s="1">
-        <v>43524</v>
-      </c>
-      <c r="C528">
-        <v>100</v>
+        <v>43819</v>
       </c>
       <c r="D528">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="529" spans="1:4" x14ac:dyDescent="0.3">
@@ -7914,13 +7882,10 @@
         <v>9</v>
       </c>
       <c r="B529" s="1">
-        <v>43525</v>
-      </c>
-      <c r="C529">
-        <v>100</v>
+        <v>43820</v>
       </c>
       <c r="D529">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="530" spans="1:4" x14ac:dyDescent="0.3">
@@ -7928,13 +7893,13 @@
         <v>9</v>
       </c>
       <c r="B530" s="1">
-        <v>43526</v>
+        <v>43821</v>
       </c>
       <c r="C530">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D530">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="531" spans="1:4" x14ac:dyDescent="0.3">
@@ -7942,13 +7907,13 @@
         <v>9</v>
       </c>
       <c r="B531" s="1">
-        <v>43527</v>
+        <v>43822</v>
       </c>
       <c r="C531">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D531">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="532" spans="1:4" x14ac:dyDescent="0.3">
@@ -7956,13 +7921,13 @@
         <v>9</v>
       </c>
       <c r="B532" s="1">
-        <v>43528</v>
+        <v>43823</v>
       </c>
       <c r="C532">
-        <v>100</v>
+        <v>40</v>
       </c>
       <c r="D532">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="533" spans="1:4" x14ac:dyDescent="0.3">
@@ -7970,13 +7935,13 @@
         <v>9</v>
       </c>
       <c r="B533" s="1">
-        <v>43529</v>
+        <v>43824</v>
       </c>
       <c r="C533">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D533">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="534" spans="1:4" x14ac:dyDescent="0.3">
@@ -7984,13 +7949,13 @@
         <v>9</v>
       </c>
       <c r="B534" s="1">
-        <v>43530</v>
+        <v>43825</v>
       </c>
       <c r="C534">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D534">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="535" spans="1:4" x14ac:dyDescent="0.3">
@@ -7998,13 +7963,13 @@
         <v>9</v>
       </c>
       <c r="B535" s="1">
-        <v>43531</v>
+        <v>43826</v>
       </c>
       <c r="C535">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D535">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="536" spans="1:4" x14ac:dyDescent="0.3">
@@ -8012,13 +7977,13 @@
         <v>9</v>
       </c>
       <c r="B536" s="1">
-        <v>43532</v>
+        <v>43827</v>
       </c>
       <c r="C536">
-        <v>100</v>
+        <v>39</v>
       </c>
       <c r="D536">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="537" spans="1:4" x14ac:dyDescent="0.3">
@@ -8026,13 +7991,13 @@
         <v>9</v>
       </c>
       <c r="B537" s="1">
-        <v>43533</v>
+        <v>43828</v>
       </c>
       <c r="C537">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D537">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="538" spans="1:4" x14ac:dyDescent="0.3">
@@ -8040,13 +8005,13 @@
         <v>9</v>
       </c>
       <c r="B538" s="1">
-        <v>43534</v>
+        <v>43829</v>
       </c>
       <c r="C538">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D538">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="539" spans="1:4" x14ac:dyDescent="0.3">
@@ -8054,13 +8019,13 @@
         <v>9</v>
       </c>
       <c r="B539" s="1">
-        <v>43535</v>
+        <v>43830</v>
       </c>
       <c r="C539">
-        <v>100</v>
+        <v>38</v>
       </c>
       <c r="D539">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="540" spans="1:4" x14ac:dyDescent="0.3">
@@ -8068,13 +8033,13 @@
         <v>9</v>
       </c>
       <c r="B540" s="1">
-        <v>43536</v>
+        <v>43831</v>
       </c>
       <c r="C540">
-        <v>100</v>
+        <v>7</v>
       </c>
       <c r="D540">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="541" spans="1:4" x14ac:dyDescent="0.3">
@@ -8082,13 +8047,13 @@
         <v>9</v>
       </c>
       <c r="B541" s="1">
-        <v>43537</v>
+        <v>43832</v>
       </c>
       <c r="C541">
-        <v>100</v>
+        <v>3</v>
       </c>
       <c r="D541">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="542" spans="1:4" x14ac:dyDescent="0.3">
@@ -8096,13 +8061,10 @@
         <v>9</v>
       </c>
       <c r="B542" s="1">
-        <v>43538</v>
-      </c>
-      <c r="C542">
-        <v>100</v>
+        <v>43833</v>
       </c>
       <c r="D542">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="543" spans="1:4" x14ac:dyDescent="0.3">
@@ -8110,13 +8072,10 @@
         <v>9</v>
       </c>
       <c r="B543" s="1">
-        <v>43539</v>
-      </c>
-      <c r="C543">
-        <v>100</v>
+        <v>43834</v>
       </c>
       <c r="D543">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="544" spans="1:4" x14ac:dyDescent="0.3">
@@ -8124,13 +8083,10 @@
         <v>9</v>
       </c>
       <c r="B544" s="1">
-        <v>43540</v>
-      </c>
-      <c r="C544">
-        <v>100</v>
+        <v>43835</v>
       </c>
       <c r="D544">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="545" spans="1:4" x14ac:dyDescent="0.3">
@@ -8138,14 +8094,13 @@
         <v>9</v>
       </c>
       <c r="B545" s="1">
-        <v>43541</v>
+        <v>43836</v>
       </c>
       <c r="C545">
-        <f>C544-2/3</f>
-        <v>99.333333333333329</v>
+        <v>1</v>
       </c>
       <c r="D545">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="546" spans="1:4" x14ac:dyDescent="0.3">
@@ -8153,14 +8108,13 @@
         <v>9</v>
       </c>
       <c r="B546" s="1">
-        <v>43542</v>
+        <v>43837</v>
       </c>
       <c r="C546">
-        <f>C545-2/3</f>
-        <v>98.666666666666657</v>
+        <v>0</v>
       </c>
       <c r="D546">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="547" spans="1:4" x14ac:dyDescent="0.3">
@@ -8168,13 +8122,13 @@
         <v>9</v>
       </c>
       <c r="B547" s="1">
-        <v>43543</v>
+        <v>43838</v>
       </c>
       <c r="C547">
-        <v>98</v>
+        <v>40</v>
       </c>
       <c r="D547">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="548" spans="1:4" x14ac:dyDescent="0.3">
@@ -8182,13 +8136,13 @@
         <v>9</v>
       </c>
       <c r="B548" s="1">
-        <v>43544</v>
+        <v>43839</v>
       </c>
       <c r="C548">
         <v>95</v>
       </c>
       <c r="D548">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="549" spans="1:4" x14ac:dyDescent="0.3">
@@ -8196,13 +8150,13 @@
         <v>9</v>
       </c>
       <c r="B549" s="1">
-        <v>43545</v>
+        <v>43840</v>
       </c>
       <c r="C549">
-        <v>92</v>
+        <v>70</v>
       </c>
       <c r="D549">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="550" spans="1:4" x14ac:dyDescent="0.3">
@@ -8210,13 +8164,13 @@
         <v>9</v>
       </c>
       <c r="B550" s="1">
-        <v>43546</v>
+        <v>43841</v>
       </c>
       <c r="C550">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D550">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="551" spans="1:4" x14ac:dyDescent="0.3">
@@ -8224,13 +8178,13 @@
         <v>9</v>
       </c>
       <c r="B551" s="1">
-        <v>43547</v>
+        <v>43842</v>
       </c>
       <c r="C551">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="D551">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="552" spans="1:4" x14ac:dyDescent="0.3">
@@ -8238,13 +8192,10 @@
         <v>9</v>
       </c>
       <c r="B552" s="1">
-        <v>43548</v>
-      </c>
-      <c r="C552">
-        <v>84</v>
+        <v>43843</v>
       </c>
       <c r="D552">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="553" spans="1:4" x14ac:dyDescent="0.3">
@@ -8252,13 +8203,13 @@
         <v>9</v>
       </c>
       <c r="B553" s="1">
-        <v>43549</v>
+        <v>43844</v>
       </c>
       <c r="C553">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="D553">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="554" spans="1:4" x14ac:dyDescent="0.3">
@@ -8266,13 +8217,13 @@
         <v>9</v>
       </c>
       <c r="B554" s="1">
-        <v>43550</v>
+        <v>43845</v>
       </c>
       <c r="C554">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="D554">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="555" spans="1:4" x14ac:dyDescent="0.3">
@@ -8280,13 +8231,13 @@
         <v>9</v>
       </c>
       <c r="B555" s="1">
-        <v>43551</v>
+        <v>43846</v>
       </c>
       <c r="C555">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D555">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="556" spans="1:4" x14ac:dyDescent="0.3">
@@ -8294,13 +8245,13 @@
         <v>9</v>
       </c>
       <c r="B556" s="1">
-        <v>43552</v>
+        <v>43847</v>
       </c>
       <c r="C556">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="D556">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="557" spans="1:4" x14ac:dyDescent="0.3">
@@ -8308,13 +8259,13 @@
         <v>9</v>
       </c>
       <c r="B557" s="1">
-        <v>43553</v>
+        <v>43848</v>
       </c>
       <c r="C557">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="D557">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="558" spans="1:4" x14ac:dyDescent="0.3">
@@ -8322,13 +8273,13 @@
         <v>9</v>
       </c>
       <c r="B558" s="1">
-        <v>43554</v>
+        <v>43849</v>
       </c>
       <c r="C558">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="D558">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="559" spans="1:4" x14ac:dyDescent="0.3">
@@ -8336,13 +8287,10 @@
         <v>9</v>
       </c>
       <c r="B559" s="1">
-        <v>43555</v>
-      </c>
-      <c r="C559">
-        <v>42</v>
+        <v>43850</v>
       </c>
       <c r="D559">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="560" spans="1:4" x14ac:dyDescent="0.3">
@@ -8350,13 +8298,13 @@
         <v>9</v>
       </c>
       <c r="B560" s="1">
-        <v>43556</v>
+        <v>43851</v>
       </c>
       <c r="C560">
-        <v>28</v>
+        <v>98</v>
       </c>
       <c r="D560">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="561" spans="1:4" x14ac:dyDescent="0.3">
@@ -8364,13 +8312,10 @@
         <v>9</v>
       </c>
       <c r="B561" s="1">
-        <v>43557</v>
-      </c>
-      <c r="C561">
-        <v>17</v>
+        <v>43852</v>
       </c>
       <c r="D561">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="562" spans="1:4" x14ac:dyDescent="0.3">
@@ -8378,13 +8323,13 @@
         <v>9</v>
       </c>
       <c r="B562" s="1">
-        <v>43558</v>
+        <v>43853</v>
       </c>
       <c r="C562">
-        <v>6</v>
+        <v>85</v>
       </c>
       <c r="D562">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="563" spans="1:4" x14ac:dyDescent="0.3">
@@ -8392,13 +8337,13 @@
         <v>9</v>
       </c>
       <c r="B563" s="1">
-        <v>43559</v>
+        <v>43854</v>
       </c>
       <c r="C563">
-        <v>1</v>
+        <v>82</v>
       </c>
       <c r="D563">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="564" spans="1:4" x14ac:dyDescent="0.3">
@@ -8406,13 +8351,10 @@
         <v>9</v>
       </c>
       <c r="B564" s="1">
-        <v>43560</v>
-      </c>
-      <c r="C564">
-        <v>0</v>
+        <v>43855</v>
       </c>
       <c r="D564">
-        <v>2019</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="565" spans="1:4" x14ac:dyDescent="0.3">
@@ -8420,10 +8362,7 @@
         <v>9</v>
       </c>
       <c r="B565" s="1">
-        <v>43807</v>
-      </c>
-      <c r="C565">
-        <v>100</v>
+        <v>43856</v>
       </c>
       <c r="D565">
         <v>2020</v>
@@ -8434,7 +8373,7 @@
         <v>9</v>
       </c>
       <c r="B566" s="1">
-        <v>43808</v>
+        <v>43857</v>
       </c>
       <c r="D566">
         <v>2020</v>
@@ -8445,7 +8384,7 @@
         <v>9</v>
       </c>
       <c r="B567" s="1">
-        <v>43809</v>
+        <v>43858</v>
       </c>
       <c r="D567">
         <v>2020</v>
@@ -8456,7 +8395,10 @@
         <v>9</v>
       </c>
       <c r="B568" s="1">
-        <v>43810</v>
+        <v>43859</v>
+      </c>
+      <c r="C568">
+        <v>12</v>
       </c>
       <c r="D568">
         <v>2020</v>
@@ -8467,7 +8409,10 @@
         <v>9</v>
       </c>
       <c r="B569" s="1">
-        <v>43811</v>
+        <v>43860</v>
+      </c>
+      <c r="C569">
+        <v>10</v>
       </c>
       <c r="D569">
         <v>2020</v>
@@ -8478,10 +8423,10 @@
         <v>9</v>
       </c>
       <c r="B570" s="1">
-        <v>43812</v>
+        <v>43861</v>
       </c>
       <c r="C570">
-        <v>96</v>
+        <v>4</v>
       </c>
       <c r="D570">
         <v>2020</v>
@@ -8492,7 +8437,7 @@
         <v>9</v>
       </c>
       <c r="B571" s="1">
-        <v>43813</v>
+        <v>43862</v>
       </c>
       <c r="D571">
         <v>2020</v>
@@ -8503,10 +8448,7 @@
         <v>9</v>
       </c>
       <c r="B572" s="1">
-        <v>43814</v>
-      </c>
-      <c r="C572">
-        <v>85</v>
+        <v>43863</v>
       </c>
       <c r="D572">
         <v>2020</v>
@@ -8517,7 +8459,7 @@
         <v>9</v>
       </c>
       <c r="B573" s="1">
-        <v>43815</v>
+        <v>43864</v>
       </c>
       <c r="D573">
         <v>2020</v>
@@ -8528,7 +8470,7 @@
         <v>9</v>
       </c>
       <c r="B574" s="1">
-        <v>43816</v>
+        <v>43865</v>
       </c>
       <c r="D574">
         <v>2020</v>
@@ -8539,10 +8481,7 @@
         <v>9</v>
       </c>
       <c r="B575" s="1">
-        <v>43817</v>
-      </c>
-      <c r="C575">
-        <v>85</v>
+        <v>43866</v>
       </c>
       <c r="D575">
         <v>2020</v>
@@ -8553,10 +8492,7 @@
         <v>9</v>
       </c>
       <c r="B576" s="1">
-        <v>43818</v>
-      </c>
-      <c r="C576">
-        <v>85</v>
+        <v>43867</v>
       </c>
       <c r="D576">
         <v>2020</v>
@@ -8567,7 +8503,10 @@
         <v>9</v>
       </c>
       <c r="B577" s="1">
-        <v>43819</v>
+        <v>43868</v>
+      </c>
+      <c r="C577">
+        <v>0</v>
       </c>
       <c r="D577">
         <v>2020</v>
@@ -8578,7 +8517,10 @@
         <v>9</v>
       </c>
       <c r="B578" s="1">
-        <v>43820</v>
+        <v>43869</v>
+      </c>
+      <c r="C578">
+        <v>93</v>
       </c>
       <c r="D578">
         <v>2020</v>
@@ -8589,10 +8531,10 @@
         <v>9</v>
       </c>
       <c r="B579" s="1">
-        <v>43821</v>
+        <v>43870</v>
       </c>
       <c r="C579">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D579">
         <v>2020</v>
@@ -8603,10 +8545,10 @@
         <v>9</v>
       </c>
       <c r="B580" s="1">
-        <v>43822</v>
+        <v>43871</v>
       </c>
       <c r="C580">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D580">
         <v>2020</v>
@@ -8617,10 +8559,10 @@
         <v>9</v>
       </c>
       <c r="B581" s="1">
-        <v>43823</v>
+        <v>43872</v>
       </c>
       <c r="C581">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D581">
         <v>2020</v>
@@ -8631,10 +8573,10 @@
         <v>9</v>
       </c>
       <c r="B582" s="1">
-        <v>43824</v>
+        <v>43873</v>
       </c>
       <c r="C582">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D582">
         <v>2020</v>
@@ -8645,10 +8587,10 @@
         <v>9</v>
       </c>
       <c r="B583" s="1">
-        <v>43825</v>
+        <v>43874</v>
       </c>
       <c r="C583">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D583">
         <v>2020</v>
@@ -8659,10 +8601,10 @@
         <v>9</v>
       </c>
       <c r="B584" s="1">
-        <v>43826</v>
+        <v>43875</v>
       </c>
       <c r="C584">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D584">
         <v>2020</v>
@@ -8673,10 +8615,10 @@
         <v>9</v>
       </c>
       <c r="B585" s="1">
-        <v>43827</v>
+        <v>43876</v>
       </c>
       <c r="C585">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="D585">
         <v>2020</v>
@@ -8687,10 +8629,10 @@
         <v>9</v>
       </c>
       <c r="B586" s="1">
-        <v>43828</v>
+        <v>43877</v>
       </c>
       <c r="C586">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D586">
         <v>2020</v>
@@ -8701,10 +8643,10 @@
         <v>9</v>
       </c>
       <c r="B587" s="1">
-        <v>43829</v>
+        <v>43878</v>
       </c>
       <c r="C587">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D587">
         <v>2020</v>
@@ -8715,10 +8657,10 @@
         <v>9</v>
       </c>
       <c r="B588" s="1">
-        <v>43830</v>
+        <v>43879</v>
       </c>
       <c r="C588">
-        <v>38</v>
+        <v>0</v>
       </c>
       <c r="D588">
         <v>2020</v>
@@ -8729,10 +8671,10 @@
         <v>9</v>
       </c>
       <c r="B589" s="1">
-        <v>43831</v>
+        <v>43880</v>
       </c>
       <c r="C589">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="D589">
         <v>2020</v>
@@ -8743,10 +8685,10 @@
         <v>9</v>
       </c>
       <c r="B590" s="1">
-        <v>43832</v>
+        <v>43881</v>
       </c>
       <c r="C590">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D590">
         <v>2020</v>
@@ -8757,7 +8699,7 @@
         <v>9</v>
       </c>
       <c r="B591" s="1">
-        <v>43833</v>
+        <v>43882</v>
       </c>
       <c r="D591">
         <v>2020</v>
@@ -8768,7 +8710,10 @@
         <v>9</v>
       </c>
       <c r="B592" s="1">
-        <v>43834</v>
+        <v>43883</v>
+      </c>
+      <c r="C592">
+        <v>0</v>
       </c>
       <c r="D592">
         <v>2020</v>
@@ -8779,7 +8724,10 @@
         <v>9</v>
       </c>
       <c r="B593" s="1">
-        <v>43835</v>
+        <v>43884</v>
+      </c>
+      <c r="C593">
+        <v>0</v>
       </c>
       <c r="D593">
         <v>2020</v>
@@ -8790,10 +8738,10 @@
         <v>9</v>
       </c>
       <c r="B594" s="1">
-        <v>43836</v>
+        <v>43885</v>
       </c>
       <c r="C594">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D594">
         <v>2020</v>
@@ -8804,7 +8752,7 @@
         <v>9</v>
       </c>
       <c r="B595" s="1">
-        <v>43837</v>
+        <v>43886</v>
       </c>
       <c r="C595">
         <v>0</v>
@@ -8818,10 +8766,10 @@
         <v>9</v>
       </c>
       <c r="B596" s="1">
-        <v>43838</v>
+        <v>43887</v>
       </c>
       <c r="C596">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="D596">
         <v>2020</v>
@@ -8832,10 +8780,10 @@
         <v>9</v>
       </c>
       <c r="B597" s="1">
-        <v>43839</v>
+        <v>43888</v>
       </c>
       <c r="C597">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="D597">
         <v>2020</v>
@@ -8846,10 +8794,10 @@
         <v>9</v>
       </c>
       <c r="B598" s="1">
-        <v>43840</v>
+        <v>43889</v>
       </c>
       <c r="C598">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="D598">
         <v>2020</v>
@@ -8860,10 +8808,10 @@
         <v>9</v>
       </c>
       <c r="B599" s="1">
-        <v>43841</v>
+        <v>43890</v>
       </c>
       <c r="C599">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D599">
         <v>2020</v>
@@ -8874,10 +8822,10 @@
         <v>9</v>
       </c>
       <c r="B600" s="1">
-        <v>43842</v>
+        <v>43891</v>
       </c>
       <c r="C600">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D600">
         <v>2020</v>
@@ -8888,7 +8836,10 @@
         <v>9</v>
       </c>
       <c r="B601" s="1">
-        <v>43843</v>
+        <v>43892</v>
+      </c>
+      <c r="C601">
+        <v>0</v>
       </c>
       <c r="D601">
         <v>2020</v>
@@ -8899,10 +8850,10 @@
         <v>9</v>
       </c>
       <c r="B602" s="1">
-        <v>43844</v>
+        <v>43893</v>
       </c>
       <c r="C602">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D602">
         <v>2020</v>
@@ -8913,10 +8864,10 @@
         <v>9</v>
       </c>
       <c r="B603" s="1">
-        <v>43845</v>
+        <v>43894</v>
       </c>
       <c r="C603">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D603">
         <v>2020</v>
@@ -8927,10 +8878,10 @@
         <v>9</v>
       </c>
       <c r="B604" s="1">
-        <v>43846</v>
+        <v>43895</v>
       </c>
       <c r="C604">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D604">
         <v>2020</v>
@@ -8941,10 +8892,10 @@
         <v>9</v>
       </c>
       <c r="B605" s="1">
-        <v>43847</v>
+        <v>43896</v>
       </c>
       <c r="C605">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D605">
         <v>2020</v>
@@ -8955,10 +8906,10 @@
         <v>9</v>
       </c>
       <c r="B606" s="1">
-        <v>43848</v>
+        <v>43897</v>
       </c>
       <c r="C606">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D606">
         <v>2020</v>
@@ -8969,10 +8920,10 @@
         <v>9</v>
       </c>
       <c r="B607" s="1">
-        <v>43849</v>
+        <v>43898</v>
       </c>
       <c r="C607">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="D607">
         <v>2020</v>
@@ -8983,7 +8934,10 @@
         <v>9</v>
       </c>
       <c r="B608" s="1">
-        <v>43850</v>
+        <v>43899</v>
+      </c>
+      <c r="C608">
+        <v>0</v>
       </c>
       <c r="D608">
         <v>2020</v>
@@ -8994,10 +8948,10 @@
         <v>9</v>
       </c>
       <c r="B609" s="1">
-        <v>43851</v>
+        <v>43900</v>
       </c>
       <c r="C609">
-        <v>98</v>
+        <v>0</v>
       </c>
       <c r="D609">
         <v>2020</v>
@@ -9008,7 +8962,10 @@
         <v>9</v>
       </c>
       <c r="B610" s="1">
-        <v>43852</v>
+        <v>43901</v>
+      </c>
+      <c r="C610">
+        <v>0</v>
       </c>
       <c r="D610">
         <v>2020</v>
@@ -9019,10 +8976,10 @@
         <v>9</v>
       </c>
       <c r="B611" s="1">
-        <v>43853</v>
+        <v>43902</v>
       </c>
       <c r="C611">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="D611">
         <v>2020</v>
@@ -9033,10 +8990,10 @@
         <v>9</v>
       </c>
       <c r="B612" s="1">
-        <v>43854</v>
+        <v>43903</v>
       </c>
       <c r="C612">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="D612">
         <v>2020</v>
@@ -9047,7 +9004,10 @@
         <v>9</v>
       </c>
       <c r="B613" s="1">
-        <v>43855</v>
+        <v>43904</v>
+      </c>
+      <c r="C613">
+        <v>100</v>
       </c>
       <c r="D613">
         <v>2020</v>
@@ -9058,7 +9018,10 @@
         <v>9</v>
       </c>
       <c r="B614" s="1">
-        <v>43856</v>
+        <v>43905</v>
+      </c>
+      <c r="C614">
+        <v>100</v>
       </c>
       <c r="D614">
         <v>2020</v>
@@ -9069,7 +9032,10 @@
         <v>9</v>
       </c>
       <c r="B615" s="1">
-        <v>43857</v>
+        <v>43906</v>
+      </c>
+      <c r="C615">
+        <v>100</v>
       </c>
       <c r="D615">
         <v>2020</v>
@@ -9080,7 +9046,7 @@
         <v>9</v>
       </c>
       <c r="B616" s="1">
-        <v>43858</v>
+        <v>43907</v>
       </c>
       <c r="D616">
         <v>2020</v>
@@ -9091,10 +9057,10 @@
         <v>9</v>
       </c>
       <c r="B617" s="1">
-        <v>43859</v>
+        <v>43908</v>
       </c>
       <c r="C617">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="D617">
         <v>2020</v>
@@ -9105,10 +9071,10 @@
         <v>9</v>
       </c>
       <c r="B618" s="1">
-        <v>43860</v>
+        <v>43909</v>
       </c>
       <c r="C618">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="D618">
         <v>2020</v>
@@ -9119,10 +9085,10 @@
         <v>9</v>
       </c>
       <c r="B619" s="1">
-        <v>43861</v>
+        <v>43910</v>
       </c>
       <c r="C619">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D619">
         <v>2020</v>
@@ -9133,7 +9099,10 @@
         <v>9</v>
       </c>
       <c r="B620" s="1">
-        <v>43862</v>
+        <v>43911</v>
+      </c>
+      <c r="C620">
+        <v>0</v>
       </c>
       <c r="D620">
         <v>2020</v>
@@ -9144,7 +9113,10 @@
         <v>9</v>
       </c>
       <c r="B621" s="1">
-        <v>43863</v>
+        <v>43912</v>
+      </c>
+      <c r="C621">
+        <v>0</v>
       </c>
       <c r="D621">
         <v>2020</v>
@@ -9155,7 +9127,7 @@
         <v>9</v>
       </c>
       <c r="B622" s="1">
-        <v>43864</v>
+        <v>43913</v>
       </c>
       <c r="D622">
         <v>2020</v>
@@ -9166,7 +9138,10 @@
         <v>9</v>
       </c>
       <c r="B623" s="1">
-        <v>43865</v>
+        <v>43914</v>
+      </c>
+      <c r="C623">
+        <v>0</v>
       </c>
       <c r="D623">
         <v>2020</v>
@@ -9177,7 +9152,10 @@
         <v>9</v>
       </c>
       <c r="B624" s="1">
-        <v>43866</v>
+        <v>43915</v>
+      </c>
+      <c r="C624">
+        <v>50</v>
       </c>
       <c r="D624">
         <v>2020</v>
@@ -9188,7 +9166,10 @@
         <v>9</v>
       </c>
       <c r="B625" s="1">
-        <v>43867</v>
+        <v>43916</v>
+      </c>
+      <c r="C625">
+        <v>0</v>
       </c>
       <c r="D625">
         <v>2020</v>
@@ -9199,7 +9180,7 @@
         <v>9</v>
       </c>
       <c r="B626" s="1">
-        <v>43868</v>
+        <v>43917</v>
       </c>
       <c r="C626">
         <v>0</v>
@@ -9213,10 +9194,10 @@
         <v>9</v>
       </c>
       <c r="B627" s="1">
-        <v>43869</v>
+        <v>43918</v>
       </c>
       <c r="C627">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="D627">
         <v>2020</v>
@@ -9227,7 +9208,7 @@
         <v>9</v>
       </c>
       <c r="B628" s="1">
-        <v>43870</v>
+        <v>43919</v>
       </c>
       <c r="C628">
         <v>0</v>
@@ -9241,7 +9222,7 @@
         <v>9</v>
       </c>
       <c r="B629" s="1">
-        <v>43871</v>
+        <v>43920</v>
       </c>
       <c r="C629">
         <v>0</v>
@@ -9255,10 +9236,10 @@
         <v>9</v>
       </c>
       <c r="B630" s="1">
-        <v>43872</v>
+        <v>43921</v>
       </c>
       <c r="C630">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D630">
         <v>2020</v>
@@ -9269,10 +9250,10 @@
         <v>9</v>
       </c>
       <c r="B631" s="1">
-        <v>43873</v>
+        <v>43922</v>
       </c>
       <c r="C631">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="D631">
         <v>2020</v>
@@ -9283,10 +9264,10 @@
         <v>9</v>
       </c>
       <c r="B632" s="1">
-        <v>43874</v>
+        <v>43923</v>
       </c>
       <c r="C632">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D632">
         <v>2020</v>
@@ -9297,689 +9278,12 @@
         <v>9</v>
       </c>
       <c r="B633" s="1">
-        <v>43875</v>
+        <v>43924</v>
       </c>
       <c r="C633">
         <v>0</v>
       </c>
       <c r="D633">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A634" t="s">
-        <v>9</v>
-      </c>
-      <c r="B634" s="1">
-        <v>43876</v>
-      </c>
-      <c r="C634">
-        <v>0</v>
-      </c>
-      <c r="D634">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A635" t="s">
-        <v>9</v>
-      </c>
-      <c r="B635" s="1">
-        <v>43877</v>
-      </c>
-      <c r="C635">
-        <v>0</v>
-      </c>
-      <c r="D635">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A636" t="s">
-        <v>9</v>
-      </c>
-      <c r="B636" s="1">
-        <v>43878</v>
-      </c>
-      <c r="C636">
-        <v>0</v>
-      </c>
-      <c r="D636">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A637" t="s">
-        <v>9</v>
-      </c>
-      <c r="B637" s="1">
-        <v>43879</v>
-      </c>
-      <c r="C637">
-        <v>0</v>
-      </c>
-      <c r="D637">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A638" t="s">
-        <v>9</v>
-      </c>
-      <c r="B638" s="1">
-        <v>43880</v>
-      </c>
-      <c r="C638">
-        <v>0</v>
-      </c>
-      <c r="D638">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A639" t="s">
-        <v>9</v>
-      </c>
-      <c r="B639" s="1">
-        <v>43881</v>
-      </c>
-      <c r="C639">
-        <v>0</v>
-      </c>
-      <c r="D639">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A640" t="s">
-        <v>9</v>
-      </c>
-      <c r="B640" s="1">
-        <v>43882</v>
-      </c>
-      <c r="D640">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A641" t="s">
-        <v>9</v>
-      </c>
-      <c r="B641" s="1">
-        <v>43883</v>
-      </c>
-      <c r="C641">
-        <v>0</v>
-      </c>
-      <c r="D641">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A642" t="s">
-        <v>9</v>
-      </c>
-      <c r="B642" s="1">
-        <v>43884</v>
-      </c>
-      <c r="C642">
-        <v>0</v>
-      </c>
-      <c r="D642">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A643" t="s">
-        <v>9</v>
-      </c>
-      <c r="B643" s="1">
-        <v>43885</v>
-      </c>
-      <c r="C643">
-        <v>90</v>
-      </c>
-      <c r="D643">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A644" t="s">
-        <v>9</v>
-      </c>
-      <c r="B644" s="1">
-        <v>43886</v>
-      </c>
-      <c r="C644">
-        <v>0</v>
-      </c>
-      <c r="D644">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A645" t="s">
-        <v>9</v>
-      </c>
-      <c r="B645" s="1">
-        <v>43887</v>
-      </c>
-      <c r="C645">
-        <v>0</v>
-      </c>
-      <c r="D645">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A646" t="s">
-        <v>9</v>
-      </c>
-      <c r="B646" s="1">
-        <v>43888</v>
-      </c>
-      <c r="C646">
-        <v>0</v>
-      </c>
-      <c r="D646">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A647" t="s">
-        <v>9</v>
-      </c>
-      <c r="B647" s="1">
-        <v>43889</v>
-      </c>
-      <c r="C647">
-        <v>0</v>
-      </c>
-      <c r="D647">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A648" t="s">
-        <v>9</v>
-      </c>
-      <c r="B648" s="1">
-        <v>43890</v>
-      </c>
-      <c r="C648">
-        <v>50</v>
-      </c>
-      <c r="D648">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A649" t="s">
-        <v>9</v>
-      </c>
-      <c r="B649" s="1">
-        <v>43891</v>
-      </c>
-      <c r="C649">
-        <v>0</v>
-      </c>
-      <c r="D649">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A650" t="s">
-        <v>9</v>
-      </c>
-      <c r="B650" s="1">
-        <v>43892</v>
-      </c>
-      <c r="C650">
-        <v>0</v>
-      </c>
-      <c r="D650">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A651" t="s">
-        <v>9</v>
-      </c>
-      <c r="B651" s="1">
-        <v>43893</v>
-      </c>
-      <c r="C651">
-        <v>0</v>
-      </c>
-      <c r="D651">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A652" t="s">
-        <v>9</v>
-      </c>
-      <c r="B652" s="1">
-        <v>43894</v>
-      </c>
-      <c r="C652">
-        <v>0</v>
-      </c>
-      <c r="D652">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A653" t="s">
-        <v>9</v>
-      </c>
-      <c r="B653" s="1">
-        <v>43895</v>
-      </c>
-      <c r="C653">
-        <v>0</v>
-      </c>
-      <c r="D653">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A654" t="s">
-        <v>9</v>
-      </c>
-      <c r="B654" s="1">
-        <v>43896</v>
-      </c>
-      <c r="C654">
-        <v>0</v>
-      </c>
-      <c r="D654">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A655" t="s">
-        <v>9</v>
-      </c>
-      <c r="B655" s="1">
-        <v>43897</v>
-      </c>
-      <c r="C655">
-        <v>0</v>
-      </c>
-      <c r="D655">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A656" t="s">
-        <v>9</v>
-      </c>
-      <c r="B656" s="1">
-        <v>43898</v>
-      </c>
-      <c r="C656">
-        <v>0</v>
-      </c>
-      <c r="D656">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A657" t="s">
-        <v>9</v>
-      </c>
-      <c r="B657" s="1">
-        <v>43899</v>
-      </c>
-      <c r="C657">
-        <v>0</v>
-      </c>
-      <c r="D657">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A658" t="s">
-        <v>9</v>
-      </c>
-      <c r="B658" s="1">
-        <v>43900</v>
-      </c>
-      <c r="C658">
-        <v>0</v>
-      </c>
-      <c r="D658">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A659" t="s">
-        <v>9</v>
-      </c>
-      <c r="B659" s="1">
-        <v>43901</v>
-      </c>
-      <c r="C659">
-        <v>0</v>
-      </c>
-      <c r="D659">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A660" t="s">
-        <v>9</v>
-      </c>
-      <c r="B660" s="1">
-        <v>43902</v>
-      </c>
-      <c r="C660">
-        <v>0</v>
-      </c>
-      <c r="D660">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A661" t="s">
-        <v>9</v>
-      </c>
-      <c r="B661" s="1">
-        <v>43903</v>
-      </c>
-      <c r="C661">
-        <v>0</v>
-      </c>
-      <c r="D661">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A662" t="s">
-        <v>9</v>
-      </c>
-      <c r="B662" s="1">
-        <v>43904</v>
-      </c>
-      <c r="C662">
-        <v>100</v>
-      </c>
-      <c r="D662">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A663" t="s">
-        <v>9</v>
-      </c>
-      <c r="B663" s="1">
-        <v>43905</v>
-      </c>
-      <c r="C663">
-        <v>100</v>
-      </c>
-      <c r="D663">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A664" t="s">
-        <v>9</v>
-      </c>
-      <c r="B664" s="1">
-        <v>43906</v>
-      </c>
-      <c r="C664">
-        <v>100</v>
-      </c>
-      <c r="D664">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A665" t="s">
-        <v>9</v>
-      </c>
-      <c r="B665" s="1">
-        <v>43907</v>
-      </c>
-      <c r="D665">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A666" t="s">
-        <v>9</v>
-      </c>
-      <c r="B666" s="1">
-        <v>43908</v>
-      </c>
-      <c r="C666">
-        <v>95</v>
-      </c>
-      <c r="D666">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A667" t="s">
-        <v>9</v>
-      </c>
-      <c r="B667" s="1">
-        <v>43909</v>
-      </c>
-      <c r="C667">
-        <v>66</v>
-      </c>
-      <c r="D667">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A668" t="s">
-        <v>9</v>
-      </c>
-      <c r="B668" s="1">
-        <v>43910</v>
-      </c>
-      <c r="C668">
-        <v>9</v>
-      </c>
-      <c r="D668">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A669" t="s">
-        <v>9</v>
-      </c>
-      <c r="B669" s="1">
-        <v>43911</v>
-      </c>
-      <c r="C669">
-        <v>0</v>
-      </c>
-      <c r="D669">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A670" t="s">
-        <v>9</v>
-      </c>
-      <c r="B670" s="1">
-        <v>43912</v>
-      </c>
-      <c r="C670">
-        <v>0</v>
-      </c>
-      <c r="D670">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A671" t="s">
-        <v>9</v>
-      </c>
-      <c r="B671" s="1">
-        <v>43913</v>
-      </c>
-      <c r="D671">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A672" t="s">
-        <v>9</v>
-      </c>
-      <c r="B672" s="1">
-        <v>43914</v>
-      </c>
-      <c r="C672">
-        <v>0</v>
-      </c>
-      <c r="D672">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A673" t="s">
-        <v>9</v>
-      </c>
-      <c r="B673" s="1">
-        <v>43915</v>
-      </c>
-      <c r="C673">
-        <v>50</v>
-      </c>
-      <c r="D673">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A674" t="s">
-        <v>9</v>
-      </c>
-      <c r="B674" s="1">
-        <v>43916</v>
-      </c>
-      <c r="C674">
-        <v>0</v>
-      </c>
-      <c r="D674">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A675" t="s">
-        <v>9</v>
-      </c>
-      <c r="B675" s="1">
-        <v>43917</v>
-      </c>
-      <c r="C675">
-        <v>0</v>
-      </c>
-      <c r="D675">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A676" t="s">
-        <v>9</v>
-      </c>
-      <c r="B676" s="1">
-        <v>43918</v>
-      </c>
-      <c r="C676">
-        <v>0</v>
-      </c>
-      <c r="D676">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A677" t="s">
-        <v>9</v>
-      </c>
-      <c r="B677" s="1">
-        <v>43919</v>
-      </c>
-      <c r="C677">
-        <v>0</v>
-      </c>
-      <c r="D677">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A678" t="s">
-        <v>9</v>
-      </c>
-      <c r="B678" s="1">
-        <v>43920</v>
-      </c>
-      <c r="C678">
-        <v>0</v>
-      </c>
-      <c r="D678">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A679" t="s">
-        <v>9</v>
-      </c>
-      <c r="B679" s="1">
-        <v>43921</v>
-      </c>
-      <c r="C679">
-        <v>100</v>
-      </c>
-      <c r="D679">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A680" t="s">
-        <v>9</v>
-      </c>
-      <c r="B680" s="1">
-        <v>43922</v>
-      </c>
-      <c r="C680">
-        <v>87</v>
-      </c>
-      <c r="D680">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A681" t="s">
-        <v>9</v>
-      </c>
-      <c r="B681" s="1">
-        <v>43923</v>
-      </c>
-      <c r="C681">
-        <v>6</v>
-      </c>
-      <c r="D681">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A682" t="s">
-        <v>9</v>
-      </c>
-      <c r="B682" s="1">
-        <v>43924</v>
-      </c>
-      <c r="C682">
-        <v>0</v>
-      </c>
-      <c r="D682">
         <v>2020</v>
       </c>
     </row>

--- a/snow_timeline.xlsx
+++ b/snow_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A54B1C3-3F45-4589-B0FC-AFAD735E5BC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1705EC-1B27-4D1B-AFE7-24D28A843343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="492" windowWidth="23040" windowHeight="12240" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
+    <workbookView xWindow="5868" yWindow="372" windowWidth="17280" windowHeight="9960" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1090" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="13">
   <si>
     <t>Location</t>
   </si>
@@ -70,6 +70,9 @@
   </si>
   <si>
     <t>underc</t>
+  </si>
+  <si>
+    <t>bartlett</t>
   </si>
 </sst>
 </file>
@@ -431,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0BDC52-0678-4879-BFA4-045E88D6C76C}">
-  <dimension ref="A1:D1087"/>
+  <dimension ref="A1:D1203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1064" workbookViewId="0">
-      <selection activeCell="A1075" sqref="A1075:A1087"/>
+    <sheetView tabSelected="1" topLeftCell="A1177" workbookViewId="0">
+      <selection activeCell="D1193" sqref="D1193:D1203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -14740,13 +14743,13 @@
         <v>4</v>
       </c>
       <c r="B1020" s="1">
-        <v>43231</v>
+        <v>44328</v>
       </c>
       <c r="C1020">
         <v>100</v>
       </c>
       <c r="D1020">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1021" spans="1:4" x14ac:dyDescent="0.3">
@@ -14754,13 +14757,13 @@
         <v>4</v>
       </c>
       <c r="B1021" s="1">
-        <v>43232</v>
+        <v>44329</v>
       </c>
       <c r="C1021">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1021">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1022" spans="1:4" x14ac:dyDescent="0.3">
@@ -14768,13 +14771,14 @@
         <v>4</v>
       </c>
       <c r="B1022" s="1">
-        <v>43233</v>
+        <v>44330</v>
       </c>
       <c r="C1022">
-        <v>99</v>
+        <f>C1021-1/4</f>
+        <v>99.75</v>
       </c>
       <c r="D1022">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1023" spans="1:4" x14ac:dyDescent="0.3">
@@ -14782,13 +14786,14 @@
         <v>4</v>
       </c>
       <c r="B1023" s="1">
-        <v>43234</v>
+        <v>44331</v>
       </c>
       <c r="C1023">
-        <v>98</v>
+        <f t="shared" ref="C1023:C1024" si="13">C1022-1/4</f>
+        <v>99.5</v>
       </c>
       <c r="D1023">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1024" spans="1:4" x14ac:dyDescent="0.3">
@@ -14796,13 +14801,14 @@
         <v>4</v>
       </c>
       <c r="B1024" s="1">
-        <v>43235</v>
+        <v>44332</v>
       </c>
       <c r="C1024">
-        <v>97</v>
+        <f t="shared" si="13"/>
+        <v>99.25</v>
       </c>
       <c r="D1024">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1025" spans="1:4" x14ac:dyDescent="0.3">
@@ -14810,13 +14816,13 @@
         <v>4</v>
       </c>
       <c r="B1025" s="1">
-        <v>43236</v>
+        <v>44333</v>
       </c>
       <c r="C1025">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D1025">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1026" spans="1:4" x14ac:dyDescent="0.3">
@@ -14824,13 +14830,14 @@
         <v>4</v>
       </c>
       <c r="B1026" s="1">
-        <v>43237</v>
+        <v>44334</v>
       </c>
       <c r="C1026">
-        <v>95</v>
+        <f>C1025-2/3</f>
+        <v>98.333333333333329</v>
       </c>
       <c r="D1026">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1027" spans="1:4" x14ac:dyDescent="0.3">
@@ -14838,13 +14845,14 @@
         <v>4</v>
       </c>
       <c r="B1027" s="1">
-        <v>43238</v>
+        <v>44335</v>
       </c>
       <c r="C1027">
-        <v>93</v>
+        <f>C1026-2/3</f>
+        <v>97.666666666666657</v>
       </c>
       <c r="D1027">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1028" spans="1:4" x14ac:dyDescent="0.3">
@@ -14852,13 +14860,13 @@
         <v>4</v>
       </c>
       <c r="B1028" s="1">
-        <v>43239</v>
+        <v>44336</v>
       </c>
       <c r="C1028">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="D1028">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1029" spans="1:4" x14ac:dyDescent="0.3">
@@ -14866,13 +14874,13 @@
         <v>4</v>
       </c>
       <c r="B1029" s="1">
-        <v>43240</v>
+        <v>44337</v>
       </c>
       <c r="C1029">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D1029">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1030" spans="1:4" x14ac:dyDescent="0.3">
@@ -14880,13 +14888,13 @@
         <v>4</v>
       </c>
       <c r="B1030" s="1">
-        <v>43241</v>
+        <v>44338</v>
       </c>
       <c r="C1030">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D1030">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1031" spans="1:4" x14ac:dyDescent="0.3">
@@ -14894,13 +14902,13 @@
         <v>4</v>
       </c>
       <c r="B1031" s="1">
-        <v>43242</v>
+        <v>44339</v>
       </c>
       <c r="C1031">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="D1031">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1032" spans="1:4" x14ac:dyDescent="0.3">
@@ -14908,13 +14916,13 @@
         <v>4</v>
       </c>
       <c r="B1032" s="1">
-        <v>43243</v>
+        <v>44340</v>
       </c>
       <c r="C1032">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="D1032">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1033" spans="1:4" x14ac:dyDescent="0.3">
@@ -14922,13 +14930,13 @@
         <v>4</v>
       </c>
       <c r="B1033" s="1">
-        <v>43244</v>
+        <v>44341</v>
       </c>
       <c r="C1033">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="D1033">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1034" spans="1:4" x14ac:dyDescent="0.3">
@@ -14936,13 +14944,13 @@
         <v>4</v>
       </c>
       <c r="B1034" s="1">
-        <v>43245</v>
+        <v>44342</v>
       </c>
       <c r="C1034">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="D1034">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1035" spans="1:4" x14ac:dyDescent="0.3">
@@ -14950,13 +14958,14 @@
         <v>4</v>
       </c>
       <c r="B1035" s="1">
-        <v>43246</v>
+        <v>44343</v>
       </c>
       <c r="C1035">
-        <v>75</v>
+        <f>C1034-11/2</f>
+        <v>85.5</v>
       </c>
       <c r="D1035">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1036" spans="1:4" x14ac:dyDescent="0.3">
@@ -14964,13 +14973,13 @@
         <v>4</v>
       </c>
       <c r="B1036" s="1">
-        <v>43247</v>
+        <v>44344</v>
       </c>
       <c r="C1036">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="D1036">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1037" spans="1:4" x14ac:dyDescent="0.3">
@@ -14978,13 +14987,14 @@
         <v>4</v>
       </c>
       <c r="B1037" s="1">
-        <v>43248</v>
+        <v>44345</v>
       </c>
       <c r="C1037">
-        <v>63</v>
+        <f>C1036-24/3</f>
+        <v>72</v>
       </c>
       <c r="D1037">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1038" spans="1:4" x14ac:dyDescent="0.3">
@@ -14992,13 +15002,14 @@
         <v>4</v>
       </c>
       <c r="B1038" s="1">
-        <v>43249</v>
+        <v>44346</v>
       </c>
       <c r="C1038">
-        <v>55</v>
+        <f>C1037-24/3</f>
+        <v>64</v>
       </c>
       <c r="D1038">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1039" spans="1:4" x14ac:dyDescent="0.3">
@@ -15006,13 +15017,13 @@
         <v>4</v>
       </c>
       <c r="B1039" s="1">
-        <v>43250</v>
+        <v>44347</v>
       </c>
       <c r="C1039">
-        <v>45</v>
+        <v>56</v>
       </c>
       <c r="D1039">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1040" spans="1:4" x14ac:dyDescent="0.3">
@@ -15020,13 +15031,13 @@
         <v>4</v>
       </c>
       <c r="B1040" s="1">
-        <v>43251</v>
+        <v>44348</v>
       </c>
       <c r="C1040">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D1040">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1041" spans="1:4" x14ac:dyDescent="0.3">
@@ -15034,13 +15045,13 @@
         <v>4</v>
       </c>
       <c r="B1041" s="1">
-        <v>43252</v>
+        <v>44349</v>
       </c>
       <c r="C1041">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D1041">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1042" spans="1:4" x14ac:dyDescent="0.3">
@@ -15048,13 +15059,13 @@
         <v>4</v>
       </c>
       <c r="B1042" s="1">
-        <v>43253</v>
+        <v>44350</v>
       </c>
       <c r="C1042">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D1042">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1043" spans="1:4" x14ac:dyDescent="0.3">
@@ -15062,13 +15073,13 @@
         <v>4</v>
       </c>
       <c r="B1043" s="1">
-        <v>43254</v>
+        <v>44351</v>
       </c>
       <c r="C1043">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D1043">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1044" spans="1:4" x14ac:dyDescent="0.3">
@@ -15076,13 +15087,13 @@
         <v>4</v>
       </c>
       <c r="B1044" s="1">
-        <v>43255</v>
+        <v>44352</v>
       </c>
       <c r="C1044">
         <v>7</v>
       </c>
       <c r="D1044">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1045" spans="1:4" x14ac:dyDescent="0.3">
@@ -15090,13 +15101,13 @@
         <v>4</v>
       </c>
       <c r="B1045" s="1">
-        <v>43256</v>
+        <v>44353</v>
       </c>
       <c r="C1045">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D1045">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1046" spans="1:4" x14ac:dyDescent="0.3">
@@ -15104,211 +15115,206 @@
         <v>4</v>
       </c>
       <c r="B1046" s="1">
-        <v>43257</v>
+        <v>44354</v>
       </c>
       <c r="C1046">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1046">
-        <v>2018</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1047" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1047" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1047" s="1">
-        <v>43258</v>
+        <v>44669</v>
       </c>
       <c r="C1047">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="D1047">
-        <v>2018</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1048" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1048" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1048" s="1">
-        <v>44328</v>
+        <v>44670</v>
       </c>
       <c r="C1048">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1048">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1049" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1049" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1049" s="1">
-        <v>44329</v>
+        <v>44671</v>
       </c>
       <c r="C1049">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D1049">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1050" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1050" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1050" s="1">
-        <v>44330</v>
+        <v>44672</v>
       </c>
       <c r="C1050">
-        <f>C1049-1/4</f>
-        <v>99.75</v>
+        <v>99</v>
       </c>
       <c r="D1050">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1051" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1051" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1051" s="1">
-        <v>44331</v>
+        <v>44673</v>
       </c>
       <c r="C1051">
-        <f t="shared" ref="C1051:C1052" si="13">C1050-1/4</f>
-        <v>99.5</v>
+        <v>97</v>
       </c>
       <c r="D1051">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1052" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1052" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1052" s="1">
-        <v>44332</v>
+        <v>44674</v>
       </c>
       <c r="C1052">
-        <f t="shared" si="13"/>
-        <v>99.25</v>
+        <v>90</v>
       </c>
       <c r="D1052">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1053" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1053" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1053" s="1">
-        <v>44333</v>
+        <v>44675</v>
       </c>
       <c r="C1053">
-        <v>99</v>
+        <v>60</v>
       </c>
       <c r="D1053">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1054" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1054" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1054" s="1">
-        <v>44334</v>
+        <v>44676</v>
       </c>
       <c r="C1054">
-        <f>C1053-2/3</f>
-        <v>98.333333333333329</v>
+        <v>40</v>
       </c>
       <c r="D1054">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1055" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1055" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1055" s="1">
-        <v>44335</v>
+        <v>44677</v>
       </c>
       <c r="C1055">
-        <f>C1054-2/3</f>
-        <v>97.666666666666657</v>
+        <v>100</v>
       </c>
       <c r="D1055">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1056" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1056" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1056" s="1">
-        <v>44336</v>
+        <v>44679</v>
       </c>
       <c r="C1056">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="D1056">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1057" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1057" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1057" s="1">
-        <v>44337</v>
+        <v>44680</v>
       </c>
       <c r="C1057">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="D1057">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1058" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1058" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1058" s="1">
-        <v>44338</v>
+        <v>44681</v>
       </c>
       <c r="C1058">
-        <v>95</v>
+        <v>2</v>
       </c>
       <c r="D1058">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1059" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1059" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1059" s="1">
-        <v>44339</v>
+        <v>44682</v>
       </c>
       <c r="C1059">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="D1059">
-        <v>2021</v>
+        <v>2022</v>
       </c>
     </row>
     <row r="1060" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1060" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1060" s="1">
-        <v>44340</v>
+        <v>44266</v>
       </c>
       <c r="C1060">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="D1060">
         <v>2021</v>
@@ -15316,13 +15322,13 @@
     </row>
     <row r="1061" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1061" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1061" s="1">
-        <v>44341</v>
+        <v>44267</v>
       </c>
       <c r="C1061">
-        <v>92</v>
+        <v>99</v>
       </c>
       <c r="D1061">
         <v>2021</v>
@@ -15330,13 +15336,13 @@
     </row>
     <row r="1062" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1062" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1062" s="1">
-        <v>44342</v>
+        <v>44268</v>
       </c>
       <c r="C1062">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="D1062">
         <v>2021</v>
@@ -15344,14 +15350,13 @@
     </row>
     <row r="1063" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1063" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1063" s="1">
-        <v>44343</v>
+        <v>44269</v>
       </c>
       <c r="C1063">
-        <f>C1062-11/2</f>
-        <v>85.5</v>
+        <v>98</v>
       </c>
       <c r="D1063">
         <v>2021</v>
@@ -15359,13 +15364,13 @@
     </row>
     <row r="1064" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1064" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1064" s="1">
-        <v>44344</v>
+        <v>44270</v>
       </c>
       <c r="C1064">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="D1064">
         <v>2021</v>
@@ -15373,14 +15378,13 @@
     </row>
     <row r="1065" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1065" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1065" s="1">
-        <v>44345</v>
+        <v>44271</v>
       </c>
       <c r="C1065">
-        <f>C1064-24/3</f>
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="D1065">
         <v>2021</v>
@@ -15388,14 +15392,13 @@
     </row>
     <row r="1066" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1066" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1066" s="1">
-        <v>44346</v>
+        <v>44272</v>
       </c>
       <c r="C1066">
-        <f>C1065-24/3</f>
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="D1066">
         <v>2021</v>
@@ -15403,13 +15406,13 @@
     </row>
     <row r="1067" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1067" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1067" s="1">
-        <v>44347</v>
+        <v>44273</v>
       </c>
       <c r="C1067">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="D1067">
         <v>2021</v>
@@ -15417,13 +15420,13 @@
     </row>
     <row r="1068" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1068" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1068" s="1">
-        <v>44348</v>
+        <v>44274</v>
       </c>
       <c r="C1068">
-        <v>52</v>
+        <v>93</v>
       </c>
       <c r="D1068">
         <v>2021</v>
@@ -15431,13 +15434,13 @@
     </row>
     <row r="1069" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1069" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1069" s="1">
-        <v>44349</v>
+        <v>44275</v>
       </c>
       <c r="C1069">
-        <v>48</v>
+        <v>90</v>
       </c>
       <c r="D1069">
         <v>2021</v>
@@ -15445,13 +15448,13 @@
     </row>
     <row r="1070" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1070" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1070" s="1">
-        <v>44350</v>
+        <v>44276</v>
       </c>
       <c r="C1070">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="D1070">
         <v>2021</v>
@@ -15459,13 +15462,13 @@
     </row>
     <row r="1071" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1071" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1071" s="1">
-        <v>44351</v>
+        <v>44277</v>
       </c>
       <c r="C1071">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D1071">
         <v>2021</v>
@@ -15473,13 +15476,13 @@
     </row>
     <row r="1072" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1072" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1072" s="1">
-        <v>44352</v>
+        <v>44278</v>
       </c>
       <c r="C1072">
-        <v>7</v>
+        <v>50</v>
       </c>
       <c r="D1072">
         <v>2021</v>
@@ -15487,13 +15490,13 @@
     </row>
     <row r="1073" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1073" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1073" s="1">
-        <v>44353</v>
+        <v>44279</v>
       </c>
       <c r="C1073">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="D1073">
         <v>2021</v>
@@ -15501,13 +15504,13 @@
     </row>
     <row r="1074" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1074" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="B1074" s="1">
-        <v>44354</v>
+        <v>44281</v>
       </c>
       <c r="C1074">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="D1074">
         <v>2021</v>
@@ -15518,13 +15521,13 @@
         <v>11</v>
       </c>
       <c r="B1075" s="1">
-        <v>44669</v>
+        <v>44282</v>
       </c>
       <c r="C1075">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="D1075">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1076" spans="1:4" x14ac:dyDescent="0.3">
@@ -15532,13 +15535,13 @@
         <v>11</v>
       </c>
       <c r="B1076" s="1">
-        <v>44670</v>
+        <v>44283</v>
       </c>
       <c r="C1076">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D1076">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1077" spans="1:4" x14ac:dyDescent="0.3">
@@ -15546,13 +15549,13 @@
         <v>11</v>
       </c>
       <c r="B1077" s="1">
-        <v>44671</v>
+        <v>44284</v>
       </c>
       <c r="C1077">
-        <v>99</v>
+        <v>30</v>
       </c>
       <c r="D1077">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1078" spans="1:4" x14ac:dyDescent="0.3">
@@ -15560,13 +15563,13 @@
         <v>11</v>
       </c>
       <c r="B1078" s="1">
-        <v>44672</v>
+        <v>44285</v>
       </c>
       <c r="C1078">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="D1078">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1079" spans="1:4" x14ac:dyDescent="0.3">
@@ -15574,13 +15577,13 @@
         <v>11</v>
       </c>
       <c r="B1079" s="1">
-        <v>44673</v>
+        <v>44287</v>
       </c>
       <c r="C1079">
-        <v>97</v>
+        <v>5</v>
       </c>
       <c r="D1079">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1080" spans="1:4" x14ac:dyDescent="0.3">
@@ -15588,13 +15591,13 @@
         <v>11</v>
       </c>
       <c r="B1080" s="1">
-        <v>44674</v>
+        <v>44288</v>
       </c>
       <c r="C1080">
-        <v>90</v>
+        <v>4</v>
       </c>
       <c r="D1080">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1081" spans="1:4" x14ac:dyDescent="0.3">
@@ -15602,13 +15605,13 @@
         <v>11</v>
       </c>
       <c r="B1081" s="1">
-        <v>44675</v>
+        <v>44289</v>
       </c>
       <c r="C1081">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D1081">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1082" spans="1:4" x14ac:dyDescent="0.3">
@@ -15616,13 +15619,13 @@
         <v>11</v>
       </c>
       <c r="B1082" s="1">
-        <v>44676</v>
+        <v>44290</v>
       </c>
       <c r="C1082">
-        <v>40</v>
+        <v>2</v>
       </c>
       <c r="D1082">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1083" spans="1:4" x14ac:dyDescent="0.3">
@@ -15630,13 +15633,13 @@
         <v>11</v>
       </c>
       <c r="B1083" s="1">
-        <v>44677</v>
+        <v>44291</v>
       </c>
       <c r="C1083">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="D1083">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1084" spans="1:4" x14ac:dyDescent="0.3">
@@ -15644,13 +15647,13 @@
         <v>11</v>
       </c>
       <c r="B1084" s="1">
-        <v>44679</v>
+        <v>44292</v>
       </c>
       <c r="C1084">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="D1084">
-        <v>2022</v>
+        <v>2021</v>
       </c>
     </row>
     <row r="1085" spans="1:4" x14ac:dyDescent="0.3">
@@ -15658,13 +15661,13 @@
         <v>11</v>
       </c>
       <c r="B1085" s="1">
-        <v>44680</v>
+        <v>43916</v>
       </c>
       <c r="C1085">
-        <v>8</v>
+        <v>100</v>
       </c>
       <c r="D1085">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1086" spans="1:4" x14ac:dyDescent="0.3">
@@ -15672,13 +15675,13 @@
         <v>11</v>
       </c>
       <c r="B1086" s="1">
-        <v>44681</v>
+        <v>43917</v>
       </c>
       <c r="C1086">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="D1086">
-        <v>2022</v>
+        <v>2020</v>
       </c>
     </row>
     <row r="1087" spans="1:4" x14ac:dyDescent="0.3">
@@ -15686,13 +15689,1637 @@
         <v>11</v>
       </c>
       <c r="B1087" s="1">
-        <v>44682</v>
+        <v>43918</v>
       </c>
       <c r="C1087">
+        <v>99</v>
+      </c>
+      <c r="D1087">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1088" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1088" s="1">
+        <v>43919</v>
+      </c>
+      <c r="C1088">
+        <v>98</v>
+      </c>
+      <c r="D1088">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1089" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1089" s="1">
+        <v>43920</v>
+      </c>
+      <c r="C1089">
+        <v>97</v>
+      </c>
+      <c r="D1089">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1090" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1090" s="1">
+        <v>43921</v>
+      </c>
+      <c r="C1090">
+        <v>96</v>
+      </c>
+      <c r="D1090">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1091" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1091" s="1">
+        <v>43922</v>
+      </c>
+      <c r="C1091">
+        <v>95</v>
+      </c>
+      <c r="D1091">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1092" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1092" s="1">
+        <v>43923</v>
+      </c>
+      <c r="C1092">
+        <v>92</v>
+      </c>
+      <c r="D1092">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1093" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1093" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C1093">
+        <v>85</v>
+      </c>
+      <c r="D1093">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1094" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1094" s="1">
+        <v>43925</v>
+      </c>
+      <c r="C1094">
+        <v>84</v>
+      </c>
+      <c r="D1094">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1095" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1095" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1095">
+        <v>80</v>
+      </c>
+      <c r="D1095">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1096" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1096" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C1096">
+        <v>75</v>
+      </c>
+      <c r="D1096">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1097" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1097" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1097">
+        <v>70</v>
+      </c>
+      <c r="D1097">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1098" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1098" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1098">
+        <v>50</v>
+      </c>
+      <c r="D1098">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1099" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1099" s="1">
+        <v>43930</v>
+      </c>
+      <c r="C1099">
+        <v>40</v>
+      </c>
+      <c r="D1099">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1100" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1100" s="1">
+        <v>43931</v>
+      </c>
+      <c r="C1100">
+        <v>40</v>
+      </c>
+      <c r="D1100">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1101" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1101" s="1">
+        <v>43932</v>
+      </c>
+      <c r="C1101">
+        <v>25</v>
+      </c>
+      <c r="D1101">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1102" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1102" s="1">
+        <v>43933</v>
+      </c>
+      <c r="C1102">
+        <v>100</v>
+      </c>
+      <c r="D1102">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1103" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1103" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C1103">
+        <v>100</v>
+      </c>
+      <c r="D1103">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1104" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1104" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C1104">
+        <v>100</v>
+      </c>
+      <c r="D1104">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1105" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1105" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C1105">
+        <v>100</v>
+      </c>
+      <c r="D1105">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1106" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1106" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C1106">
+        <v>100</v>
+      </c>
+      <c r="D1106">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1107" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1107" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C1107">
+        <v>97</v>
+      </c>
+      <c r="D1107">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1108" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1108" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C1108">
+        <v>50</v>
+      </c>
+      <c r="D1108">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1109" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1109" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C1109">
+        <v>15</v>
+      </c>
+      <c r="D1109">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1110" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1110" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C1110">
+        <v>15</v>
+      </c>
+      <c r="D1110">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1111" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1111" s="1">
+        <v>43942</v>
+      </c>
+      <c r="C1111">
+        <v>15</v>
+      </c>
+      <c r="D1111">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1112" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1112" s="1">
+        <v>43943</v>
+      </c>
+      <c r="C1112">
+        <v>15</v>
+      </c>
+      <c r="D1112">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1113" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1113" s="1">
+        <v>43944</v>
+      </c>
+      <c r="C1113">
+        <v>10</v>
+      </c>
+      <c r="D1113">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1114" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1114" s="1">
+        <v>43945</v>
+      </c>
+      <c r="C1114">
+        <v>6</v>
+      </c>
+      <c r="D1114">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1115" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1115" s="1">
+        <v>43946</v>
+      </c>
+      <c r="C1115">
+        <v>3</v>
+      </c>
+      <c r="D1115">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1116" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1116" s="1">
+        <v>43947</v>
+      </c>
+      <c r="C1116">
+        <v>2</v>
+      </c>
+      <c r="D1116">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1117" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1117" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C1117">
+        <v>1</v>
+      </c>
+      <c r="D1117">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1118" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1118" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C1118">
+        <v>1</v>
+      </c>
+      <c r="D1118">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1119" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1119" s="1">
+        <v>43950</v>
+      </c>
+      <c r="C1119">
         <v>0</v>
       </c>
-      <c r="D1087">
-        <v>2022</v>
+      <c r="D1119">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1120" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1120" s="1">
+        <v>43561</v>
+      </c>
+      <c r="C1120">
+        <v>100</v>
+      </c>
+      <c r="D1120">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1121" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1121" s="1">
+        <v>43562</v>
+      </c>
+      <c r="C1121">
+        <v>99</v>
+      </c>
+      <c r="D1121">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1122" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1122" s="1">
+        <v>43563</v>
+      </c>
+      <c r="C1122">
+        <v>97</v>
+      </c>
+      <c r="D1122">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1123" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1123" s="1">
+        <v>43564</v>
+      </c>
+      <c r="C1123">
+        <v>96</v>
+      </c>
+      <c r="D1123">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1124" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1124" s="1">
+        <v>43565</v>
+      </c>
+      <c r="C1124">
+        <v>95</v>
+      </c>
+      <c r="D1124">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1125" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1125" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C1125">
+        <v>100</v>
+      </c>
+      <c r="D1125">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1126" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1126" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C1126">
+        <v>100</v>
+      </c>
+      <c r="D1126">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1127" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1127" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C1127">
+        <v>100</v>
+      </c>
+      <c r="D1127">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1128" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1128" s="1">
+        <v>43569</v>
+      </c>
+      <c r="C1128">
+        <v>100</v>
+      </c>
+      <c r="D1128">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1129" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1129" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C1129">
+        <v>100</v>
+      </c>
+      <c r="D1129">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1130" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1130" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C1130">
+        <v>95</v>
+      </c>
+      <c r="D1130">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1131" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1131" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1131" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C1131">
+        <v>87</v>
+      </c>
+      <c r="D1131">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1132" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1132" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C1132">
+        <v>85</v>
+      </c>
+      <c r="D1132">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1133" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1133" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C1133">
+        <v>75</v>
+      </c>
+      <c r="D1133">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1134" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1134" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1134" s="1">
+        <v>43575</v>
+      </c>
+      <c r="C1134">
+        <v>60</v>
+      </c>
+      <c r="D1134">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1135" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1135" s="1">
+        <v>43576</v>
+      </c>
+      <c r="C1135">
+        <v>30</v>
+      </c>
+      <c r="D1135">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1136" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1136" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C1136">
+        <v>25</v>
+      </c>
+      <c r="D1136">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1137" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1137" s="1">
+        <v>43578</v>
+      </c>
+      <c r="C1137">
+        <v>10</v>
+      </c>
+      <c r="D1137">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1138" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1138" s="1">
+        <v>43579</v>
+      </c>
+      <c r="C1138">
+        <v>5</v>
+      </c>
+      <c r="D1138">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1139" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1139" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1139" s="1">
+        <v>43580</v>
+      </c>
+      <c r="C1139">
+        <v>3</v>
+      </c>
+      <c r="D1139">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1140" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1140" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1140" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C1140">
+        <v>2</v>
+      </c>
+      <c r="D1140">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1141" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1141" s="1">
+        <v>43582</v>
+      </c>
+      <c r="C1141">
+        <v>1</v>
+      </c>
+      <c r="D1141">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1142" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1142" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1142" s="1">
+        <v>43583</v>
+      </c>
+      <c r="C1142">
+        <v>1</v>
+      </c>
+      <c r="D1142">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1143" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1143" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C1143">
+        <v>1</v>
+      </c>
+      <c r="D1143">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1144" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1144" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C1144">
+        <v>0</v>
+      </c>
+      <c r="D1144">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1145" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1145" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1145" s="1">
+        <v>44636</v>
+      </c>
+      <c r="C1145">
+        <v>100</v>
+      </c>
+      <c r="D1145">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1146" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1146" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1146" s="1">
+        <v>44637</v>
+      </c>
+      <c r="C1146">
+        <v>99</v>
+      </c>
+      <c r="D1146">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1147" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1147" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1147" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C1147">
+        <v>98</v>
+      </c>
+      <c r="D1147">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1148" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1148" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1148" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C1148">
+        <v>97</v>
+      </c>
+      <c r="D1148">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1149" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1149" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1149" s="1">
+        <v>44640</v>
+      </c>
+      <c r="C1149">
+        <v>95</v>
+      </c>
+      <c r="D1149">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1150" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1150" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1150" s="1">
+        <v>44641</v>
+      </c>
+      <c r="C1150">
+        <v>90</v>
+      </c>
+      <c r="D1150">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1151" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1151" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1151" s="1">
+        <v>44642</v>
+      </c>
+      <c r="C1151">
+        <v>85</v>
+      </c>
+      <c r="D1151">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1152" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1152" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1152" s="1">
+        <v>44643</v>
+      </c>
+      <c r="C1152">
+        <v>80</v>
+      </c>
+      <c r="D1152">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1153" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1153" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1153" s="1">
+        <v>44644</v>
+      </c>
+      <c r="C1153">
+        <v>100</v>
+      </c>
+      <c r="D1153">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1154" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1154" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1154" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C1154">
+        <v>70</v>
+      </c>
+      <c r="D1154">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1155" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1155" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1155" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C1155">
+        <v>55</v>
+      </c>
+      <c r="D1155">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1156" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1156" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1156" s="1">
+        <v>44647</v>
+      </c>
+      <c r="C1156">
+        <v>45</v>
+      </c>
+      <c r="D1156">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1157" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1157" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1157" s="1">
+        <v>44648</v>
+      </c>
+      <c r="C1157">
+        <v>40</v>
+      </c>
+      <c r="D1157">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1158" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1158" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1158" s="1">
+        <v>44649</v>
+      </c>
+      <c r="C1158">
+        <v>40</v>
+      </c>
+      <c r="D1158">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1159" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1159" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1159" s="1">
+        <v>44650</v>
+      </c>
+      <c r="C1159">
+        <v>35</v>
+      </c>
+      <c r="D1159">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1160" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1160" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1160" s="1">
+        <v>44651</v>
+      </c>
+      <c r="C1160">
+        <v>20</v>
+      </c>
+      <c r="D1160">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1161" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1161" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1161" s="1">
+        <v>44652</v>
+      </c>
+      <c r="C1161">
+        <v>10</v>
+      </c>
+      <c r="D1161">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1162" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1162" s="1">
+        <v>44653</v>
+      </c>
+      <c r="C1162">
+        <v>5</v>
+      </c>
+      <c r="D1162">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1163" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1163" s="1">
+        <v>44654</v>
+      </c>
+      <c r="C1163">
+        <v>4</v>
+      </c>
+      <c r="D1163">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1164" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1164" s="1">
+        <v>44655</v>
+      </c>
+      <c r="C1164">
+        <v>2</v>
+      </c>
+      <c r="D1164">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1165" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1165" s="1">
+        <v>44656</v>
+      </c>
+      <c r="C1165">
+        <v>1</v>
+      </c>
+      <c r="D1165">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1166" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1166" s="1">
+        <v>44657</v>
+      </c>
+      <c r="C1166">
+        <v>0</v>
+      </c>
+      <c r="D1166">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1167" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1167" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1167" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C1167">
+        <v>98</v>
+      </c>
+      <c r="D1167">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1168" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1168" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1168" s="1">
+        <v>44280</v>
+      </c>
+      <c r="C1168">
+        <v>96</v>
+      </c>
+      <c r="D1168">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1169" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1169" s="1">
+        <v>44281</v>
+      </c>
+      <c r="C1169">
+        <v>94</v>
+      </c>
+      <c r="D1169">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1170" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1170" s="1">
+        <v>44282</v>
+      </c>
+      <c r="C1170">
+        <v>87</v>
+      </c>
+      <c r="D1170">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1171" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1171" s="1">
+        <v>44283</v>
+      </c>
+      <c r="C1171">
+        <v>85</v>
+      </c>
+      <c r="D1171">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1172" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1172" s="1">
+        <v>44284</v>
+      </c>
+      <c r="C1172">
+        <v>75</v>
+      </c>
+      <c r="D1172">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1173" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1173" s="1">
+        <v>44285</v>
+      </c>
+      <c r="C1173">
+        <v>65</v>
+      </c>
+      <c r="D1173">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1174" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1174" s="1">
+        <v>44286</v>
+      </c>
+      <c r="C1174">
+        <v>40</v>
+      </c>
+      <c r="D1174">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1175" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1175" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C1175">
+        <v>20</v>
+      </c>
+      <c r="D1175">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1176" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1176" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C1176">
+        <v>15</v>
+      </c>
+      <c r="D1176">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1177" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1177" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C1177">
+        <v>10</v>
+      </c>
+      <c r="D1177">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1178" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1178" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C1178">
+        <v>5</v>
+      </c>
+      <c r="D1178">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1179" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1179" s="1">
+        <v>44291</v>
+      </c>
+      <c r="C1179">
+        <v>2</v>
+      </c>
+      <c r="D1179">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1180" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1180" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1180" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C1180">
+        <v>0</v>
+      </c>
+      <c r="D1180">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1181" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1181" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1181" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1181">
+        <v>95</v>
+      </c>
+      <c r="D1181">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1182" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1182" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C1182">
+        <v>90</v>
+      </c>
+      <c r="D1182">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1183" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1183" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1183" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1183">
+        <v>87</v>
+      </c>
+      <c r="D1183">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1184" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1184" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1184" s="1">
+        <v>43929</v>
+      </c>
+      <c r="C1184">
+        <v>85</v>
+      </c>
+      <c r="D1184">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1185" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1185" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1185" s="1">
+        <v>43934</v>
+      </c>
+      <c r="C1185">
+        <v>78</v>
+      </c>
+      <c r="D1185">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1186" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1186" s="1">
+        <v>43935</v>
+      </c>
+      <c r="C1186">
+        <v>45</v>
+      </c>
+      <c r="D1186">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1187" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1187" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1187" s="1">
+        <v>43936</v>
+      </c>
+      <c r="C1187">
+        <v>40</v>
+      </c>
+      <c r="D1187">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1188" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1188" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1188" s="1">
+        <v>43937</v>
+      </c>
+      <c r="C1188">
+        <v>35</v>
+      </c>
+      <c r="D1188">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1189" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1189" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1189" s="1">
+        <v>43938</v>
+      </c>
+      <c r="C1189">
+        <v>30</v>
+      </c>
+      <c r="D1189">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1190" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1190" s="1">
+        <v>43939</v>
+      </c>
+      <c r="C1190">
+        <v>25</v>
+      </c>
+      <c r="D1190">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1191" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1191" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1191" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C1191">
+        <v>15</v>
+      </c>
+      <c r="D1191">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1192" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1192" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1192" s="1">
+        <v>43941</v>
+      </c>
+      <c r="C1192">
+        <v>5</v>
+      </c>
+      <c r="D1192">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1193" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1193" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1193" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C1193">
+        <v>95</v>
+      </c>
+      <c r="D1193">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1194" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1194" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1194" s="1">
+        <v>43578</v>
+      </c>
+      <c r="C1194">
+        <v>85</v>
+      </c>
+      <c r="D1194">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1195" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1195" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1195" s="1">
+        <v>43579</v>
+      </c>
+      <c r="C1195">
+        <v>75</v>
+      </c>
+      <c r="D1195">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1196" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1196" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1196" s="1">
+        <v>43580</v>
+      </c>
+      <c r="C1196">
+        <v>60</v>
+      </c>
+      <c r="D1196">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1197" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1197" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1197" s="1">
+        <v>43581</v>
+      </c>
+      <c r="C1197">
+        <v>60</v>
+      </c>
+      <c r="D1197">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1198" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1198" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1198" s="1">
+        <v>43582</v>
+      </c>
+      <c r="C1198">
+        <v>45</v>
+      </c>
+      <c r="D1198">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1199" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1199" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1199" s="1">
+        <v>43583</v>
+      </c>
+      <c r="C1199">
+        <v>20</v>
+      </c>
+      <c r="D1199">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1200" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1200" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1200" s="1">
+        <v>43584</v>
+      </c>
+      <c r="C1200">
+        <v>12</v>
+      </c>
+      <c r="D1200">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1201" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1201" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1201" s="1">
+        <v>43585</v>
+      </c>
+      <c r="C1201">
+        <v>5</v>
+      </c>
+      <c r="D1201">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1202" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1202" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1202" s="1">
+        <v>43586</v>
+      </c>
+      <c r="C1202">
+        <v>2</v>
+      </c>
+      <c r="D1202">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1203" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1203" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1203" s="1">
+        <v>43587</v>
+      </c>
+      <c r="C1203">
+        <v>1</v>
+      </c>
+      <c r="D1203">
+        <v>2019</v>
       </c>
     </row>
   </sheetData>

--- a/snow_timeline.xlsx
+++ b/snow_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC1705EC-1B27-4D1B-AFE7-24D28A843343}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E205646-126C-4412-941F-01FB9E3351D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="372" windowWidth="17280" windowHeight="9960" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1206" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="16">
   <si>
     <t>Location</t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>bartlett</t>
+  </si>
+  <si>
+    <t>underhill</t>
+  </si>
+  <si>
+    <t>willowcreek</t>
+  </si>
+  <si>
+    <t>glees</t>
   </si>
 </sst>
 </file>
@@ -434,10 +443,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0BDC52-0678-4879-BFA4-045E88D6C76C}">
-  <dimension ref="A1:D1203"/>
+  <dimension ref="A1:D1278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1177" workbookViewId="0">
-      <selection activeCell="D1193" sqref="D1193:D1203"/>
+    <sheetView tabSelected="1" topLeftCell="A1259" workbookViewId="0">
+      <selection activeCell="J1278" sqref="J1278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17322,6 +17331,1056 @@
         <v>2019</v>
       </c>
     </row>
+    <row r="1204" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1204" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1204" s="1">
+        <v>44626</v>
+      </c>
+      <c r="C1204">
+        <v>98</v>
+      </c>
+      <c r="D1204">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1205" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1205" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1205" s="1">
+        <v>44627</v>
+      </c>
+      <c r="C1205">
+        <v>7</v>
+      </c>
+      <c r="D1205">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1206" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1206" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1206" s="1">
+        <v>44628</v>
+      </c>
+      <c r="C1206">
+        <v>15</v>
+      </c>
+      <c r="D1206">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1207" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1207" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1207" s="1">
+        <v>44629</v>
+      </c>
+      <c r="C1207">
+        <v>7</v>
+      </c>
+      <c r="D1207">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1208" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1208" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1208" s="1">
+        <v>44630</v>
+      </c>
+      <c r="C1208">
+        <v>7</v>
+      </c>
+      <c r="D1208">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1209" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1209" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1209" s="1">
+        <v>44631</v>
+      </c>
+      <c r="C1209">
+        <v>5</v>
+      </c>
+      <c r="D1209">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1210" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1210" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1210" s="1">
+        <v>44636</v>
+      </c>
+      <c r="C1210">
+        <v>100</v>
+      </c>
+      <c r="D1210">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1211" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1211" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1211" s="1">
+        <v>44637</v>
+      </c>
+      <c r="C1211">
+        <v>3</v>
+      </c>
+      <c r="D1211">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1212" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1212" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1212" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C1212">
+        <v>1</v>
+      </c>
+      <c r="D1212">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1213" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1213" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1213" s="1">
+        <v>44267</v>
+      </c>
+      <c r="C1213">
+        <v>95</v>
+      </c>
+      <c r="D1213">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1214" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1214" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1214" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C1214">
+        <v>90</v>
+      </c>
+      <c r="D1214">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1215" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1215" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1215" s="1">
+        <v>44270</v>
+      </c>
+      <c r="C1215">
+        <v>100</v>
+      </c>
+      <c r="D1215">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1216" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1216" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1216" s="1">
+        <v>44271</v>
+      </c>
+      <c r="C1216">
+        <v>98</v>
+      </c>
+      <c r="D1216">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1217" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1217" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1217" s="1">
+        <v>44272</v>
+      </c>
+      <c r="C1217">
+        <v>85</v>
+      </c>
+      <c r="D1217">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1218" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1218" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1218" s="1">
+        <v>44273</v>
+      </c>
+      <c r="C1218">
+        <v>80</v>
+      </c>
+      <c r="D1218">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1219" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1219" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1219" s="1">
+        <v>44274</v>
+      </c>
+      <c r="C1219">
+        <v>80</v>
+      </c>
+      <c r="D1219">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1220" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1220" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1220" s="1">
+        <v>44275</v>
+      </c>
+      <c r="C1220">
+        <v>75</v>
+      </c>
+      <c r="D1220">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1221" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1221" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1221" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C1221">
+        <v>65</v>
+      </c>
+      <c r="D1221">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1222" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1222" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1222" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C1222">
+        <v>97</v>
+      </c>
+      <c r="D1222">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1223" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1223" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1223" s="1">
+        <v>43899</v>
+      </c>
+      <c r="C1223">
+        <v>90</v>
+      </c>
+      <c r="D1223">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1224" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1224" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1224" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C1224">
+        <v>60</v>
+      </c>
+      <c r="D1224">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1225" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1225" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1225" s="1">
+        <v>43901</v>
+      </c>
+      <c r="C1225">
+        <v>25</v>
+      </c>
+      <c r="D1225">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1226" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1226" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1226" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C1226">
+        <v>25</v>
+      </c>
+      <c r="D1226">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1227" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1227" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1227" s="1">
+        <v>43903</v>
+      </c>
+      <c r="C1227">
+        <v>10</v>
+      </c>
+      <c r="D1227">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1228" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1228" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1228" s="1">
+        <v>43904</v>
+      </c>
+      <c r="C1228">
+        <v>5</v>
+      </c>
+      <c r="D1228">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1229" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1229" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1229" s="1">
+        <v>43539</v>
+      </c>
+      <c r="C1229">
+        <v>90</v>
+      </c>
+      <c r="D1229">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1230" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1230" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1230" s="1">
+        <v>43540</v>
+      </c>
+      <c r="C1230">
+        <v>90</v>
+      </c>
+      <c r="D1230">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1231" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1231" s="1">
+        <v>43542</v>
+      </c>
+      <c r="C1231">
+        <v>90</v>
+      </c>
+      <c r="D1231">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1232" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1232" s="1">
+        <v>43544</v>
+      </c>
+      <c r="C1232">
+        <v>80</v>
+      </c>
+      <c r="D1232">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1233" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1233" s="1">
+        <v>43545</v>
+      </c>
+      <c r="C1233">
+        <v>65</v>
+      </c>
+      <c r="D1233">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1234" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1234" s="1">
+        <v>43553</v>
+      </c>
+      <c r="C1234">
+        <v>95</v>
+      </c>
+      <c r="D1234">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1235" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1235" s="1">
+        <v>43555</v>
+      </c>
+      <c r="C1235">
+        <v>5</v>
+      </c>
+      <c r="D1235">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1236" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1236" s="1">
+        <v>43557</v>
+      </c>
+      <c r="C1236">
+        <v>5</v>
+      </c>
+      <c r="D1236">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1237" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1237" s="1">
+        <v>44663</v>
+      </c>
+      <c r="C1237">
+        <v>90</v>
+      </c>
+      <c r="D1237">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1238" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1238" s="1">
+        <v>44664</v>
+      </c>
+      <c r="C1238">
+        <v>75</v>
+      </c>
+      <c r="D1238">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1239" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1239" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C1239">
+        <v>70</v>
+      </c>
+      <c r="D1239">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1240" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1240" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C1240">
+        <v>40</v>
+      </c>
+      <c r="D1240">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1241" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1241" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C1241">
+        <v>10</v>
+      </c>
+      <c r="D1241">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1242" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1242" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C1242">
+        <v>2</v>
+      </c>
+      <c r="D1242">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1243" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1243" s="1">
+        <v>44272</v>
+      </c>
+      <c r="C1243">
+        <v>97</v>
+      </c>
+      <c r="D1243">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1244" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1244" s="1">
+        <v>44273</v>
+      </c>
+      <c r="C1244">
+        <v>96</v>
+      </c>
+      <c r="D1244">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1245" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1245" s="1">
+        <v>44274</v>
+      </c>
+      <c r="C1245">
+        <v>95</v>
+      </c>
+      <c r="D1245">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1246" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1246" s="1">
+        <v>44275</v>
+      </c>
+      <c r="C1246">
+        <v>92</v>
+      </c>
+      <c r="D1246">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1247" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1247" s="1">
+        <v>44276</v>
+      </c>
+      <c r="C1247">
+        <v>80</v>
+      </c>
+      <c r="D1247">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1248" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1248" s="1">
+        <v>44277</v>
+      </c>
+      <c r="C1248">
+        <v>7</v>
+      </c>
+      <c r="D1248">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1249" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1249" s="1">
+        <v>43923</v>
+      </c>
+      <c r="C1249">
+        <v>90</v>
+      </c>
+      <c r="D1249">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1250" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1250" s="1">
+        <v>43924</v>
+      </c>
+      <c r="C1250">
+        <v>70</v>
+      </c>
+      <c r="D1250">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1251" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1251" s="1">
+        <v>43926</v>
+      </c>
+      <c r="C1251">
+        <v>50</v>
+      </c>
+      <c r="D1251">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1252" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1252" s="1">
+        <v>43927</v>
+      </c>
+      <c r="C1252">
+        <v>25</v>
+      </c>
+      <c r="D1252">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1253" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1253" s="1">
+        <v>43928</v>
+      </c>
+      <c r="C1253">
+        <v>5</v>
+      </c>
+      <c r="D1253">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1254" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1254" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C1254">
+        <v>97</v>
+      </c>
+      <c r="D1254">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1255" s="1">
+        <v>43575</v>
+      </c>
+      <c r="C1255">
+        <v>85</v>
+      </c>
+      <c r="D1255">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1256" s="1">
+        <v>43576</v>
+      </c>
+      <c r="C1256">
+        <v>45</v>
+      </c>
+      <c r="D1256">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1257" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C1257">
+        <v>10</v>
+      </c>
+      <c r="D1257">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1258" s="1">
+        <v>44715</v>
+      </c>
+      <c r="C1258">
+        <v>95</v>
+      </c>
+      <c r="D1258">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1259" s="1">
+        <v>44716</v>
+      </c>
+      <c r="C1259">
+        <v>93</v>
+      </c>
+      <c r="D1259">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1260" s="1">
+        <v>44717</v>
+      </c>
+      <c r="C1260">
+        <v>89</v>
+      </c>
+      <c r="D1260">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1261" s="1">
+        <v>44718</v>
+      </c>
+      <c r="C1261">
+        <v>83</v>
+      </c>
+      <c r="D1261">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1262" s="1">
+        <v>44719</v>
+      </c>
+      <c r="C1262">
+        <v>75</v>
+      </c>
+      <c r="D1262">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>44720</v>
+      </c>
+      <c r="C1263">
+        <v>70</v>
+      </c>
+      <c r="D1263">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>44721</v>
+      </c>
+      <c r="C1264">
+        <v>60</v>
+      </c>
+      <c r="D1264">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>44722</v>
+      </c>
+      <c r="C1265">
+        <v>45</v>
+      </c>
+      <c r="D1265">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>44723</v>
+      </c>
+      <c r="C1266">
+        <v>25</v>
+      </c>
+      <c r="D1266">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>44724</v>
+      </c>
+      <c r="C1267">
+        <v>15</v>
+      </c>
+      <c r="D1267">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>44725</v>
+      </c>
+      <c r="C1268">
+        <v>10</v>
+      </c>
+      <c r="D1268">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>44726</v>
+      </c>
+      <c r="C1269">
+        <v>7</v>
+      </c>
+      <c r="D1269">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>44727</v>
+      </c>
+      <c r="C1270">
+        <v>5</v>
+      </c>
+      <c r="D1270">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>44728</v>
+      </c>
+      <c r="C1271">
+        <v>3</v>
+      </c>
+      <c r="D1271">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>44350</v>
+      </c>
+      <c r="C1272">
+        <v>93</v>
+      </c>
+      <c r="D1272">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>44351</v>
+      </c>
+      <c r="C1273">
+        <v>85</v>
+      </c>
+      <c r="D1273">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>44352</v>
+      </c>
+      <c r="C1274">
+        <v>80</v>
+      </c>
+      <c r="D1274">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>44353</v>
+      </c>
+      <c r="C1275">
+        <v>70</v>
+      </c>
+      <c r="D1275">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>44354</v>
+      </c>
+      <c r="C1276">
+        <v>60</v>
+      </c>
+      <c r="D1276">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>44355</v>
+      </c>
+      <c r="C1277">
+        <v>45</v>
+      </c>
+      <c r="D1277">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1278" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1278" s="1">
+        <v>44356</v>
+      </c>
+      <c r="C1278">
+        <v>25</v>
+      </c>
+      <c r="D1278">
+        <v>2021</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/snow_timeline.xlsx
+++ b/snow_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E205646-126C-4412-941F-01FB9E3351D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7F89BA7-5D69-42BA-BAFE-879A18F8CDF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
+    <workbookView xWindow="5868" yWindow="-12" windowWidth="17280" windowHeight="9960" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1281" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="18">
   <si>
     <t>Location</t>
   </si>
@@ -82,6 +82,12 @@
   </si>
   <si>
     <t>glees</t>
+  </si>
+  <si>
+    <t>queens</t>
+  </si>
+  <si>
+    <t>old_jack_pine</t>
   </si>
 </sst>
 </file>
@@ -443,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0BDC52-0678-4879-BFA4-045E88D6C76C}">
-  <dimension ref="A1:D1278"/>
+  <dimension ref="A1:D1364"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1259" workbookViewId="0">
-      <selection activeCell="J1278" sqref="J1278"/>
+    <sheetView tabSelected="1" topLeftCell="A1337" workbookViewId="0">
+      <selection activeCell="C1365" sqref="C1365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18381,6 +18387,1210 @@
         <v>2021</v>
       </c>
     </row>
+    <row r="1279" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1279" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1279" s="1">
+        <v>44634</v>
+      </c>
+      <c r="C1279">
+        <v>98</v>
+      </c>
+      <c r="D1279">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1280" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1280" s="1">
+        <v>44635</v>
+      </c>
+      <c r="C1280">
+        <v>96</v>
+      </c>
+      <c r="D1280">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1281" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1281" s="1">
+        <v>44636</v>
+      </c>
+      <c r="C1281">
+        <v>95</v>
+      </c>
+      <c r="D1281">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1282" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1282" s="1">
+        <v>44637</v>
+      </c>
+      <c r="C1282">
+        <v>94</v>
+      </c>
+      <c r="D1282">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1283" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1283" s="1">
+        <v>44638</v>
+      </c>
+      <c r="C1283">
+        <v>93</v>
+      </c>
+      <c r="D1283">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1284" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1284" s="1">
+        <v>44639</v>
+      </c>
+      <c r="C1284">
+        <v>91</v>
+      </c>
+      <c r="D1284">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1285" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1285" s="1">
+        <v>44640</v>
+      </c>
+      <c r="C1285">
+        <v>90</v>
+      </c>
+      <c r="D1285">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1286" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1286" s="1">
+        <v>44641</v>
+      </c>
+      <c r="C1286">
+        <v>87</v>
+      </c>
+      <c r="D1286">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1287" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1287" s="1">
+        <v>44642</v>
+      </c>
+      <c r="C1287">
+        <v>83</v>
+      </c>
+      <c r="D1287">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1288" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1288" s="1">
+        <v>44643</v>
+      </c>
+      <c r="C1288">
+        <v>79</v>
+      </c>
+      <c r="D1288">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1289" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1289" s="1">
+        <v>44644</v>
+      </c>
+      <c r="C1289">
+        <v>50</v>
+      </c>
+      <c r="D1289">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1290" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1290" s="1">
+        <v>44645</v>
+      </c>
+      <c r="C1290">
+        <v>25</v>
+      </c>
+      <c r="D1290">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1291" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1291" s="1">
+        <v>44646</v>
+      </c>
+      <c r="C1291">
+        <v>12</v>
+      </c>
+      <c r="D1291">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1292" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1292" s="1">
+        <v>44647</v>
+      </c>
+      <c r="C1292">
+        <v>7</v>
+      </c>
+      <c r="D1292">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1293" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1293" s="1">
+        <v>44648</v>
+      </c>
+      <c r="C1293">
+        <v>6</v>
+      </c>
+      <c r="D1293">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1294" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1294" s="1">
+        <v>44649</v>
+      </c>
+      <c r="C1294">
+        <v>5</v>
+      </c>
+      <c r="D1294">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1295" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1295" s="1">
+        <v>44265</v>
+      </c>
+      <c r="C1295">
+        <v>97</v>
+      </c>
+      <c r="D1295">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1296" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1296" s="1">
+        <v>44266</v>
+      </c>
+      <c r="C1296">
+        <v>90</v>
+      </c>
+      <c r="D1296">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1297" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1297" s="1">
+        <v>44267</v>
+      </c>
+      <c r="C1297">
+        <v>75</v>
+      </c>
+      <c r="D1297">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1298" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1298" s="1">
+        <v>44268</v>
+      </c>
+      <c r="C1298">
+        <v>45</v>
+      </c>
+      <c r="D1298">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1299" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1299" s="1">
+        <v>44269</v>
+      </c>
+      <c r="C1299">
+        <v>40</v>
+      </c>
+      <c r="D1299">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1300" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1300" s="1">
+        <v>44270</v>
+      </c>
+      <c r="C1300">
+        <v>38</v>
+      </c>
+      <c r="D1300">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1301" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1301" s="1">
+        <v>44271</v>
+      </c>
+      <c r="C1301">
+        <v>37</v>
+      </c>
+      <c r="D1301">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1302" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1302" s="1">
+        <v>44272</v>
+      </c>
+      <c r="C1302">
+        <v>25</v>
+      </c>
+      <c r="D1302">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1303" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1303" s="1">
+        <v>44273</v>
+      </c>
+      <c r="C1303">
+        <v>10</v>
+      </c>
+      <c r="D1303">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1304" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1304" s="1">
+        <v>44274</v>
+      </c>
+      <c r="C1304">
+        <v>7</v>
+      </c>
+      <c r="D1304">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1305" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1305" s="1">
+        <v>44275</v>
+      </c>
+      <c r="C1305">
+        <v>4</v>
+      </c>
+      <c r="D1305">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1306" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1306" s="1">
+        <v>43547</v>
+      </c>
+      <c r="C1306">
+        <v>95</v>
+      </c>
+      <c r="D1306">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1307" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1307" s="1">
+        <v>43548</v>
+      </c>
+      <c r="C1307">
+        <v>85</v>
+      </c>
+      <c r="D1307">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1308" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1308" s="1">
+        <v>43549</v>
+      </c>
+      <c r="C1308">
+        <v>84</v>
+      </c>
+      <c r="D1308">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1309" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1309" s="1">
+        <v>43550</v>
+      </c>
+      <c r="C1309">
+        <v>80</v>
+      </c>
+      <c r="D1309">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1310" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1310" s="1">
+        <v>43551</v>
+      </c>
+      <c r="C1310">
+        <v>65</v>
+      </c>
+      <c r="D1310">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1311" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1311" s="1">
+        <v>43552</v>
+      </c>
+      <c r="C1311">
+        <v>50</v>
+      </c>
+      <c r="D1311">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1312" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1312" s="1">
+        <v>43553</v>
+      </c>
+      <c r="C1312">
+        <v>30</v>
+      </c>
+      <c r="D1312">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1313" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1313" s="1">
+        <v>43554</v>
+      </c>
+      <c r="C1313">
+        <v>15</v>
+      </c>
+      <c r="D1313">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1314" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1314" s="1">
+        <v>43556</v>
+      </c>
+      <c r="C1314">
+        <v>10</v>
+      </c>
+      <c r="D1314">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1315" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1315" s="1">
+        <v>43557</v>
+      </c>
+      <c r="C1315">
+        <v>5</v>
+      </c>
+      <c r="D1315">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1316" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1316" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C1316">
+        <v>100</v>
+      </c>
+      <c r="D1316">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1317" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1317" s="1">
+        <v>44674</v>
+      </c>
+      <c r="C1317">
+        <v>99</v>
+      </c>
+      <c r="D1317">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1318" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1318" s="1">
+        <v>44675</v>
+      </c>
+      <c r="C1318">
+        <v>98</v>
+      </c>
+      <c r="D1318">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1319" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1319" s="1">
+        <v>44676</v>
+      </c>
+      <c r="C1319">
+        <v>97</v>
+      </c>
+      <c r="D1319">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1320" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1320" s="1">
+        <v>44677</v>
+      </c>
+      <c r="C1320">
+        <v>96</v>
+      </c>
+      <c r="D1320">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1321" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1321" s="1">
+        <v>44678</v>
+      </c>
+      <c r="C1321">
+        <v>94</v>
+      </c>
+      <c r="D1321">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1322" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1322" s="1">
+        <v>44679</v>
+      </c>
+      <c r="C1322">
+        <v>90</v>
+      </c>
+      <c r="D1322">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1323" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1323" s="1">
+        <v>44680</v>
+      </c>
+      <c r="C1323">
+        <v>80</v>
+      </c>
+      <c r="D1323">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1324" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1324" s="1">
+        <v>44681</v>
+      </c>
+      <c r="C1324">
+        <v>65</v>
+      </c>
+      <c r="D1324">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1325" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1325" s="1">
+        <v>44682</v>
+      </c>
+      <c r="C1325">
+        <v>60</v>
+      </c>
+      <c r="D1325">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1326" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1326" s="1">
+        <v>44683</v>
+      </c>
+      <c r="C1326">
+        <v>50</v>
+      </c>
+      <c r="D1326">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1327" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1327" s="1">
+        <v>44684</v>
+      </c>
+      <c r="C1327">
+        <v>50</v>
+      </c>
+      <c r="D1327">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1328" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1328" s="1">
+        <v>44685</v>
+      </c>
+      <c r="C1328">
+        <v>35</v>
+      </c>
+      <c r="D1328">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1329" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1329" s="1">
+        <v>44686</v>
+      </c>
+      <c r="C1329">
+        <v>20</v>
+      </c>
+      <c r="D1329">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1330" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1330" s="1">
+        <v>44687</v>
+      </c>
+      <c r="C1330">
+        <v>8</v>
+      </c>
+      <c r="D1330">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1331" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1331" s="1">
+        <v>44688</v>
+      </c>
+      <c r="C1331">
+        <v>5</v>
+      </c>
+      <c r="D1331">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1332" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1332" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C1332">
+        <v>100</v>
+      </c>
+      <c r="D1332">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1333" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1333" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C1333">
+        <v>99</v>
+      </c>
+      <c r="D1333">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1334" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1334" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C1334">
+        <v>98</v>
+      </c>
+      <c r="D1334">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1335" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1335" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C1335">
+        <v>96</v>
+      </c>
+      <c r="D1335">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1336" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1336" s="1">
+        <v>44291</v>
+      </c>
+      <c r="C1336">
+        <v>94</v>
+      </c>
+      <c r="D1336">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1337" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1337" s="1">
+        <v>44292</v>
+      </c>
+      <c r="C1337">
+        <v>90</v>
+      </c>
+      <c r="D1337">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1338" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1338" s="1">
+        <v>44293</v>
+      </c>
+      <c r="C1338">
+        <v>75</v>
+      </c>
+      <c r="D1338">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1339" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1339" s="1">
+        <v>44294</v>
+      </c>
+      <c r="C1339">
+        <v>60</v>
+      </c>
+      <c r="D1339">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1340" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1340" s="1">
+        <v>44295</v>
+      </c>
+      <c r="C1340">
+        <v>54</v>
+      </c>
+      <c r="D1340">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1341" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1341" s="1">
+        <v>44296</v>
+      </c>
+      <c r="C1341">
+        <v>45</v>
+      </c>
+      <c r="D1341">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1342" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1342" s="1">
+        <v>44299</v>
+      </c>
+      <c r="C1342">
+        <v>44</v>
+      </c>
+      <c r="D1342">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1343" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1343" s="1">
+        <v>44300</v>
+      </c>
+      <c r="C1343">
+        <v>35</v>
+      </c>
+      <c r="D1343">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1344" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1344" s="1">
+        <v>44301</v>
+      </c>
+      <c r="C1344">
+        <v>20</v>
+      </c>
+      <c r="D1344">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1345" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1345" s="1">
+        <v>44302</v>
+      </c>
+      <c r="C1345">
+        <v>15</v>
+      </c>
+      <c r="D1345">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1346" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1346" s="1">
+        <v>44303</v>
+      </c>
+      <c r="C1346">
+        <v>10</v>
+      </c>
+      <c r="D1346">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1347" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1347" s="1">
+        <v>43944</v>
+      </c>
+      <c r="C1347">
+        <v>95</v>
+      </c>
+      <c r="D1347">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1348" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1348" s="1">
+        <v>43945</v>
+      </c>
+      <c r="C1348">
+        <v>90</v>
+      </c>
+      <c r="D1348">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1349" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1349" s="1">
+        <v>43946</v>
+      </c>
+      <c r="C1349">
+        <v>75</v>
+      </c>
+      <c r="D1349">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1350" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1350" s="1">
+        <v>43947</v>
+      </c>
+      <c r="C1350">
+        <v>35</v>
+      </c>
+      <c r="D1350">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1351" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1351" s="1">
+        <v>43948</v>
+      </c>
+      <c r="C1351">
+        <v>15</v>
+      </c>
+      <c r="D1351">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1352" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1352" s="1">
+        <v>43949</v>
+      </c>
+      <c r="C1352">
+        <v>5</v>
+      </c>
+      <c r="D1352">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1353" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1353" s="1">
+        <v>43566</v>
+      </c>
+      <c r="C1353">
+        <v>97</v>
+      </c>
+      <c r="D1353">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1354" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1354" s="1">
+        <v>43567</v>
+      </c>
+      <c r="C1354">
+        <v>95</v>
+      </c>
+      <c r="D1354">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1355" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1355" s="1">
+        <v>43568</v>
+      </c>
+      <c r="C1355">
+        <v>90</v>
+      </c>
+      <c r="D1355">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1356" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1356" s="1">
+        <v>43569</v>
+      </c>
+      <c r="C1356">
+        <v>87</v>
+      </c>
+      <c r="D1356">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1357" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1357" s="1">
+        <v>43570</v>
+      </c>
+      <c r="C1357">
+        <v>85</v>
+      </c>
+      <c r="D1357">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1358" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1358" s="1">
+        <v>43571</v>
+      </c>
+      <c r="C1358">
+        <v>73</v>
+      </c>
+      <c r="D1358">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1359" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1359" s="1">
+        <v>43572</v>
+      </c>
+      <c r="C1359">
+        <v>60</v>
+      </c>
+      <c r="D1359">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1360" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1360" s="1">
+        <v>43573</v>
+      </c>
+      <c r="C1360">
+        <v>33</v>
+      </c>
+      <c r="D1360">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1361" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1361" s="1">
+        <v>43574</v>
+      </c>
+      <c r="C1361">
+        <v>20</v>
+      </c>
+      <c r="D1361">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1362" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1362" s="1">
+        <v>43575</v>
+      </c>
+      <c r="C1362">
+        <v>10</v>
+      </c>
+      <c r="D1362">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1363" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1363" s="1">
+        <v>43576</v>
+      </c>
+      <c r="C1363">
+        <v>7</v>
+      </c>
+      <c r="D1363">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1364" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1364" s="1">
+        <v>43577</v>
+      </c>
+      <c r="C1364">
+        <v>4</v>
+      </c>
+      <c r="D1364">
+        <v>2019</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/snow_timeline.xlsx
+++ b/snow_timeline.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s1803229\Documents\Snowstradamus\Snowstradamus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B6F897A-47C1-43EE-B553-ADC0740AD5E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C2155AB-61F6-4A97-9D90-55D570FA8EC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5868" yWindow="-72" windowWidth="17280" windowHeight="9960" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
+    <workbookView xWindow="5856" yWindow="0" windowWidth="17280" windowHeight="9960" xr2:uid="{C4BA0D95-1C30-456C-B2BA-46850E4E26C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1257" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1280" uniqueCount="22">
   <si>
     <t>Location</t>
   </si>
@@ -97,6 +97,9 @@
   </si>
   <si>
     <t>hyytiala</t>
+  </si>
+  <si>
+    <t>tammela</t>
   </si>
 </sst>
 </file>
@@ -458,10 +461,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A0BDC52-0678-4879-BFA4-045E88D6C76C}">
-  <dimension ref="A1:D1262"/>
+  <dimension ref="A1:D1277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1230" workbookViewId="0">
-      <selection activeCell="C1257" sqref="C1257"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="E372" sqref="E372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18116,49 +18119,325 @@
       </c>
     </row>
     <row r="1255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1255" t="s">
+        <v>20</v>
+      </c>
       <c r="B1255" s="1">
         <v>43571</v>
       </c>
       <c r="C1255">
         <v>97</v>
       </c>
+      <c r="D1255">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1256" t="s">
+        <v>20</v>
+      </c>
       <c r="B1256" s="1">
         <v>43572</v>
       </c>
       <c r="C1256">
         <v>95</v>
       </c>
+      <c r="D1256">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1257" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1257" t="s">
+        <v>20</v>
+      </c>
       <c r="B1257" s="1">
         <v>43573</v>
       </c>
+      <c r="C1257">
+        <v>90</v>
+      </c>
+      <c r="D1257">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1258" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1258" t="s">
+        <v>20</v>
+      </c>
       <c r="B1258" s="1">
         <v>43574</v>
       </c>
+      <c r="C1258">
+        <v>80</v>
+      </c>
+      <c r="D1258">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1259" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1259" t="s">
+        <v>20</v>
+      </c>
       <c r="B1259" s="1">
         <v>43575</v>
       </c>
+      <c r="C1259">
+        <v>65</v>
+      </c>
+      <c r="D1259">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1260" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1260" t="s">
+        <v>20</v>
+      </c>
       <c r="B1260" s="1">
         <v>43576</v>
       </c>
+      <c r="C1260">
+        <v>45</v>
+      </c>
+      <c r="D1260">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1261" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1261" t="s">
+        <v>20</v>
+      </c>
       <c r="B1261" s="1">
         <v>43577</v>
       </c>
+      <c r="C1261">
+        <v>15</v>
+      </c>
+      <c r="D1261">
+        <v>2019</v>
+      </c>
     </row>
     <row r="1262" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1262" t="s">
+        <v>20</v>
+      </c>
       <c r="B1262" s="1">
         <v>43578</v>
+      </c>
+      <c r="C1262">
+        <v>8</v>
+      </c>
+      <c r="D1262">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1263" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1263" s="1">
+        <v>43579</v>
+      </c>
+      <c r="C1263">
+        <v>3</v>
+      </c>
+      <c r="D1263">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1264" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1264" s="1">
+        <v>44667</v>
+      </c>
+      <c r="C1264">
+        <v>99</v>
+      </c>
+      <c r="D1264">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1265" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1265" s="1">
+        <v>44668</v>
+      </c>
+      <c r="C1265">
+        <v>98.5</v>
+      </c>
+      <c r="D1265">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1266" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1266" s="1">
+        <v>44669</v>
+      </c>
+      <c r="C1266">
+        <v>98</v>
+      </c>
+      <c r="D1266">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1267" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1267" s="1">
+        <v>44671</v>
+      </c>
+      <c r="C1267">
+        <v>80</v>
+      </c>
+      <c r="D1267">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1268" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1268" s="1">
+        <v>44672</v>
+      </c>
+      <c r="C1268">
+        <v>30</v>
+      </c>
+      <c r="D1268">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1269" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1269" s="1">
+        <v>44673</v>
+      </c>
+      <c r="C1269">
+        <v>10</v>
+      </c>
+      <c r="D1269">
+        <v>2022</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1270" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1270" s="1">
+        <v>44279</v>
+      </c>
+      <c r="C1270">
+        <v>99</v>
+      </c>
+      <c r="D1270">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1271" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1271" s="1">
+        <v>44284</v>
+      </c>
+      <c r="C1271">
+        <v>90</v>
+      </c>
+      <c r="D1271">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1272" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1272" s="1">
+        <v>44285</v>
+      </c>
+      <c r="C1272">
+        <v>70</v>
+      </c>
+      <c r="D1272">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1273" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1273" s="1">
+        <v>44286</v>
+      </c>
+      <c r="C1273">
+        <v>45</v>
+      </c>
+      <c r="D1273">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1274" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1274" s="1">
+        <v>44287</v>
+      </c>
+      <c r="C1274">
+        <v>25</v>
+      </c>
+      <c r="D1274">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1275" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1275" s="1">
+        <v>44288</v>
+      </c>
+      <c r="C1275">
+        <v>15</v>
+      </c>
+      <c r="D1275">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1276" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1276" s="1">
+        <v>44289</v>
+      </c>
+      <c r="C1276">
+        <v>10</v>
+      </c>
+      <c r="D1276">
+        <v>2021</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1277" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1277" s="1">
+        <v>44290</v>
+      </c>
+      <c r="C1277">
+        <v>5</v>
+      </c>
+      <c r="D1277">
+        <v>2021</v>
       </c>
     </row>
   </sheetData>
